--- a/data/egret.xlsx
+++ b/data/egret.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/egret/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1FA189-F88A-074B-A4F2-6EB2E7E8741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95B9B16-2D65-7241-8A6D-F7660A845BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37600" yWindow="460" windowWidth="36300" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10050" uniqueCount="2631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10066" uniqueCount="2636">
   <si>
     <t>datasetID</t>
   </si>
@@ -7927,6 +7927,21 @@
   </si>
   <si>
     <t>FB</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>JN</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>JS</t>
   </si>
 </sst>
 </file>
@@ -9454,8 +9469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W376" sqref="W376"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T484" sqref="T484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31403,6 +31418,9 @@
       <c r="S472" t="s">
         <v>2550</v>
       </c>
+      <c r="T472" t="s">
+        <v>2631</v>
+      </c>
     </row>
     <row r="473" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
@@ -31435,6 +31453,9 @@
       <c r="S473" t="s">
         <v>2555</v>
       </c>
+      <c r="T473" t="s">
+        <v>2631</v>
+      </c>
     </row>
     <row r="474" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
@@ -31476,6 +31497,9 @@
       <c r="S474" t="s">
         <v>2560</v>
       </c>
+      <c r="T474" t="s">
+        <v>2631</v>
+      </c>
     </row>
     <row r="475" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
@@ -31517,6 +31541,9 @@
       <c r="S475" t="s">
         <v>2564</v>
       </c>
+      <c r="T475" t="s">
+        <v>2632</v>
+      </c>
     </row>
     <row r="476" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
@@ -31558,6 +31585,9 @@
       <c r="S476" t="s">
         <v>2569</v>
       </c>
+      <c r="T476" t="s">
+        <v>2632</v>
+      </c>
     </row>
     <row r="477" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
@@ -31602,6 +31632,9 @@
       <c r="S477" t="s">
         <v>2550</v>
       </c>
+      <c r="T477" t="s">
+        <v>2632</v>
+      </c>
     </row>
     <row r="478" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
@@ -31643,6 +31676,9 @@
       <c r="S478" t="s">
         <v>2576</v>
       </c>
+      <c r="T478" t="s">
+        <v>2632</v>
+      </c>
     </row>
     <row r="479" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
@@ -31675,6 +31711,9 @@
       <c r="S479" t="s">
         <v>2560</v>
       </c>
+      <c r="T479" t="s">
+        <v>2633</v>
+      </c>
     </row>
     <row r="480" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
@@ -31716,6 +31755,9 @@
       <c r="S480" t="s">
         <v>2585</v>
       </c>
+      <c r="T480" t="s">
+        <v>2633</v>
+      </c>
     </row>
     <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
@@ -31757,6 +31799,9 @@
       <c r="S481" t="s">
         <v>2590</v>
       </c>
+      <c r="T481" t="s">
+        <v>2633</v>
+      </c>
     </row>
     <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
@@ -31789,6 +31834,9 @@
       <c r="S482" t="s">
         <v>2596</v>
       </c>
+      <c r="T482" t="s">
+        <v>2634</v>
+      </c>
     </row>
     <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
@@ -31833,6 +31881,9 @@
       <c r="S483" t="s">
         <v>2603</v>
       </c>
+      <c r="T483" t="s">
+        <v>2634</v>
+      </c>
     </row>
     <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
@@ -31874,6 +31925,9 @@
       <c r="S484" t="s">
         <v>2608</v>
       </c>
+      <c r="T484" t="s">
+        <v>2634</v>
+      </c>
     </row>
     <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
@@ -31915,6 +31969,9 @@
       <c r="S485" t="s">
         <v>2612</v>
       </c>
+      <c r="T485" t="s">
+        <v>2635</v>
+      </c>
     </row>
     <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
@@ -32003,6 +32060,9 @@
       <c r="S487" t="s">
         <v>2621</v>
       </c>
+      <c r="T487" t="s">
+        <v>2635</v>
+      </c>
     </row>
     <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
@@ -32046,6 +32106,9 @@
       </c>
       <c r="S488" t="s">
         <v>2625</v>
+      </c>
+      <c r="T488" t="s">
+        <v>2635</v>
       </c>
     </row>
   </sheetData>

--- a/data/egret.xlsx
+++ b/data/egret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/egret/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82F324A-9E8F-5945-BD88-38B33E43869C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111E263F-F2C2-C84F-A410-7ED137669736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="460" windowWidth="22540" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12239" uniqueCount="2643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12227" uniqueCount="2645">
   <si>
     <t>datasetID</t>
   </si>
@@ -7963,6 +7963,12 @@
   </si>
   <si>
     <t>germ in other paper</t>
+  </si>
+  <si>
+    <t>never scraped</t>
+  </si>
+  <si>
+    <t>CRD</t>
   </si>
 </sst>
 </file>
@@ -55582,10 +55588,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y484"/>
+  <dimension ref="A1:Y483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="H154" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34:T63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56463,7 +56469,7 @@
         <v>2632</v>
       </c>
       <c r="U15" s="18" t="s">
-        <v>2640</v>
+        <v>2643</v>
       </c>
       <c r="V15" s="18"/>
     </row>
@@ -57508,7 +57514,7 @@
         <v>2044</v>
       </c>
       <c r="T34" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U34" s="18" t="s">
         <v>42</v>
@@ -57560,7 +57566,7 @@
         <v>2052</v>
       </c>
       <c r="T35" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U35" s="18" t="s">
         <v>42</v>
@@ -57612,7 +57618,7 @@
         <v>2056</v>
       </c>
       <c r="T36" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U36" s="18" t="s">
         <v>42</v>
@@ -57666,7 +57672,7 @@
         <v>2072</v>
       </c>
       <c r="T37" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U37" s="18" t="s">
         <v>42</v>
@@ -57720,7 +57726,7 @@
         <v>2078</v>
       </c>
       <c r="T38" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U38" s="18" t="s">
         <v>42</v>
@@ -57774,7 +57780,7 @@
         <v>2081</v>
       </c>
       <c r="T39" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U39" s="18" t="s">
         <v>42</v>
@@ -57830,7 +57836,7 @@
         <v>2270</v>
       </c>
       <c r="T40" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U40" s="18" t="s">
         <v>42</v>
@@ -57886,7 +57892,7 @@
         <v>2279</v>
       </c>
       <c r="T41" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U41" s="18" t="s">
         <v>42</v>
@@ -57938,7 +57944,7 @@
         <v>2284</v>
       </c>
       <c r="T42" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U42" s="18" t="s">
         <v>42</v>
@@ -57992,7 +57998,7 @@
         <v>2279</v>
       </c>
       <c r="T43" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U43" s="18" t="s">
         <v>42</v>
@@ -58046,7 +58052,7 @@
         <v>2290</v>
       </c>
       <c r="T44" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U44" s="18" t="s">
         <v>42</v>
@@ -58104,7 +58110,7 @@
         <v>809</v>
       </c>
       <c r="T45" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U45" s="18" t="s">
         <v>42</v>
@@ -58162,7 +58168,7 @@
         <v>822</v>
       </c>
       <c r="T46" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U46" s="18" t="s">
         <v>42</v>
@@ -58218,7 +58224,7 @@
         <v>397</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U47" s="18" t="s">
         <v>42</v>
@@ -58272,7 +58278,7 @@
         <v>401</v>
       </c>
       <c r="T48" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U48" s="18" t="s">
         <v>42</v>
@@ -58328,7 +58334,7 @@
         <v>407</v>
       </c>
       <c r="T49" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U49" s="18" t="s">
         <v>42</v>
@@ -58384,7 +58390,7 @@
         <v>413</v>
       </c>
       <c r="T50" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U50" s="18" t="s">
         <v>42</v>
@@ -58440,7 +58446,7 @@
         <v>654</v>
       </c>
       <c r="T51" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U51" s="18" t="s">
         <v>42</v>
@@ -58498,7 +58504,7 @@
         <v>647</v>
       </c>
       <c r="T52" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U52" s="18" t="s">
         <v>42</v>
@@ -58554,7 +58560,7 @@
         <v>668</v>
       </c>
       <c r="T53" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U53" s="18" t="s">
         <v>42</v>
@@ -58606,7 +58612,7 @@
         <v>678</v>
       </c>
       <c r="T54" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U54" s="18" t="s">
         <v>42</v>
@@ -58660,7 +58666,7 @@
         <v>694</v>
       </c>
       <c r="T55" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U55" s="18" t="s">
         <v>42</v>
@@ -58716,7 +58722,7 @@
         <v>711</v>
       </c>
       <c r="T56" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U56" s="18" t="s">
         <v>42</v>
@@ -58772,7 +58778,7 @@
         <v>716</v>
       </c>
       <c r="T57" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U57" s="18" t="s">
         <v>42</v>
@@ -58826,7 +58832,7 @@
         <v>1020</v>
       </c>
       <c r="T58" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U58" s="18" t="s">
         <v>42</v>
@@ -58882,7 +58888,7 @@
         <v>1020</v>
       </c>
       <c r="T59" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U59" s="18" t="s">
         <v>42</v>
@@ -58938,7 +58944,7 @@
         <v>1222</v>
       </c>
       <c r="T60" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U60" s="18" t="s">
         <v>42</v>
@@ -58992,7 +58998,7 @@
         <v>1227</v>
       </c>
       <c r="T61" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U61" s="18" t="s">
         <v>42</v>
@@ -59048,7 +59054,7 @@
         <v>1231</v>
       </c>
       <c r="T62" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U62" s="18" t="s">
         <v>42</v>
@@ -59104,7 +59110,7 @@
         <v>1237</v>
       </c>
       <c r="T63" s="18" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="U63" s="18" t="s">
         <v>42</v>
@@ -64728,31 +64734,29 @@
         <v>187</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>1944</v>
+        <v>1962</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>1945</v>
+        <v>1963</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E166" s="18">
-        <v>48</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="E166" s="18"/>
       <c r="F166" s="18">
-        <v>3</v>
+        <v>1249</v>
       </c>
       <c r="G166" s="18">
-        <v>963</v>
+        <v>63</v>
       </c>
       <c r="H166" s="18">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>339</v>
+        <v>1964</v>
       </c>
       <c r="J166" s="18" t="s">
-        <v>199</v>
+        <v>1965</v>
       </c>
       <c r="K166" s="18" t="s">
         <v>188</v>
@@ -64769,7 +64773,7 @@
         <v>276</v>
       </c>
       <c r="S166" s="18" t="s">
-        <v>1946</v>
+        <v>1966</v>
       </c>
       <c r="T166" s="18" t="s">
         <v>286</v>
@@ -64784,29 +64788,31 @@
         <v>187</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>1962</v>
+        <v>1979</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>1963</v>
+        <v>1980</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="E167" s="18"/>
+        <v>1981</v>
+      </c>
+      <c r="E167" s="18">
+        <v>7</v>
+      </c>
       <c r="F167" s="18">
-        <v>1249</v>
+        <v>4</v>
       </c>
       <c r="G167" s="18">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="H167" s="18">
-        <v>2019</v>
+        <v>1989</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>1964</v>
+        <v>1669</v>
       </c>
       <c r="J167" s="18" t="s">
-        <v>1965</v>
+        <v>445</v>
       </c>
       <c r="K167" s="18" t="s">
         <v>188</v>
@@ -64823,7 +64829,7 @@
         <v>276</v>
       </c>
       <c r="S167" s="18" t="s">
-        <v>1966</v>
+        <v>1982</v>
       </c>
       <c r="T167" s="18" t="s">
         <v>286</v>
@@ -64834,59 +64840,27 @@
       <c r="V167" s="18"/>
     </row>
     <row r="168" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B168" s="18" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>1980</v>
-      </c>
-      <c r="D168" s="18" t="s">
-        <v>1981</v>
-      </c>
-      <c r="E168" s="18">
-        <v>7</v>
-      </c>
-      <c r="F168" s="18">
-        <v>4</v>
-      </c>
-      <c r="G168" s="18">
-        <v>167</v>
-      </c>
-      <c r="H168" s="18">
-        <v>1989</v>
-      </c>
-      <c r="I168" s="18" t="s">
-        <v>1669</v>
-      </c>
-      <c r="J168" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="K168" s="18" t="s">
-        <v>188</v>
-      </c>
+      <c r="A168" s="18"/>
+      <c r="B168" s="18"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
+      <c r="I168" s="18"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="18"/>
       <c r="L168" s="18"/>
       <c r="M168" s="18"/>
       <c r="N168" s="18"/>
       <c r="O168" s="18"/>
-      <c r="P168" s="18" t="s">
-        <v>795</v>
-      </c>
+      <c r="P168" s="18"/>
       <c r="Q168" s="18"/>
-      <c r="R168" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="S168" s="18" t="s">
-        <v>1982</v>
-      </c>
-      <c r="T168" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="U168" s="18" t="s">
-        <v>2641</v>
-      </c>
+      <c r="R168" s="18"/>
+      <c r="S168" s="18"/>
+      <c r="T168" s="18"/>
+      <c r="U168" s="18"/>
       <c r="V168" s="18"/>
     </row>
     <row r="169" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -67991,7 +67965,7 @@
       <c r="C298" s="18"/>
       <c r="D298" s="18"/>
       <c r="E298" s="18"/>
-      <c r="F298" s="18"/>
+      <c r="F298" s="30"/>
       <c r="G298" s="18"/>
       <c r="H298" s="18"/>
       <c r="I298" s="18"/>
@@ -68015,7 +67989,7 @@
       <c r="C299" s="18"/>
       <c r="D299" s="18"/>
       <c r="E299" s="18"/>
-      <c r="F299" s="30"/>
+      <c r="F299" s="18"/>
       <c r="G299" s="18"/>
       <c r="H299" s="18"/>
       <c r="I299" s="18"/>
@@ -69287,7 +69261,7 @@
       <c r="C352" s="18"/>
       <c r="D352" s="18"/>
       <c r="E352" s="18"/>
-      <c r="F352" s="18"/>
+      <c r="F352" s="30"/>
       <c r="G352" s="18"/>
       <c r="H352" s="18"/>
       <c r="I352" s="18"/>
@@ -69311,7 +69285,7 @@
       <c r="C353" s="18"/>
       <c r="D353" s="18"/>
       <c r="E353" s="18"/>
-      <c r="F353" s="30"/>
+      <c r="F353" s="18"/>
       <c r="G353" s="18"/>
       <c r="H353" s="18"/>
       <c r="I353" s="18"/>
@@ -69479,7 +69453,7 @@
       <c r="C360" s="18"/>
       <c r="D360" s="18"/>
       <c r="E360" s="18"/>
-      <c r="F360" s="18"/>
+      <c r="F360" s="30"/>
       <c r="G360" s="18"/>
       <c r="H360" s="18"/>
       <c r="I360" s="18"/>
@@ -69503,7 +69477,7 @@
       <c r="C361" s="18"/>
       <c r="D361" s="18"/>
       <c r="E361" s="18"/>
-      <c r="F361" s="30"/>
+      <c r="F361" s="18"/>
       <c r="G361" s="18"/>
       <c r="H361" s="18"/>
       <c r="I361" s="18"/>
@@ -71351,7 +71325,7 @@
       <c r="C438" s="18"/>
       <c r="D438" s="18"/>
       <c r="E438" s="18"/>
-      <c r="F438" s="18"/>
+      <c r="F438" s="30"/>
       <c r="G438" s="18"/>
       <c r="H438" s="18"/>
       <c r="I438" s="18"/>
@@ -71375,7 +71349,7 @@
       <c r="C439" s="18"/>
       <c r="D439" s="18"/>
       <c r="E439" s="18"/>
-      <c r="F439" s="30"/>
+      <c r="F439" s="18"/>
       <c r="G439" s="18"/>
       <c r="H439" s="18"/>
       <c r="I439" s="18"/>
@@ -71663,7 +71637,7 @@
       <c r="C451" s="18"/>
       <c r="D451" s="18"/>
       <c r="E451" s="18"/>
-      <c r="F451" s="18"/>
+      <c r="F451" s="30"/>
       <c r="G451" s="18"/>
       <c r="H451" s="18"/>
       <c r="I451" s="18"/>
@@ -71687,7 +71661,7 @@
       <c r="C452" s="18"/>
       <c r="D452" s="18"/>
       <c r="E452" s="18"/>
-      <c r="F452" s="30"/>
+      <c r="F452" s="18"/>
       <c r="G452" s="18"/>
       <c r="H452" s="18"/>
       <c r="I452" s="18"/>
@@ -72405,39 +72379,15 @@
       <c r="A482" s="18"/>
       <c r="B482" s="18"/>
       <c r="C482" s="18"/>
-      <c r="D482" s="18"/>
-      <c r="E482" s="18"/>
-      <c r="F482" s="18"/>
-      <c r="G482" s="18"/>
-      <c r="H482" s="18"/>
-      <c r="I482" s="18"/>
-      <c r="J482" s="18"/>
-      <c r="K482" s="18"/>
-      <c r="L482" s="18"/>
-      <c r="M482" s="18"/>
-      <c r="N482" s="18"/>
-      <c r="O482" s="18"/>
-      <c r="P482" s="18"/>
-      <c r="Q482" s="18"/>
-      <c r="R482" s="18"/>
-      <c r="S482" s="18"/>
-      <c r="T482" s="18"/>
-      <c r="U482" s="18"/>
-      <c r="V482" s="18"/>
     </row>
     <row r="483" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="18"/>
       <c r="B483" s="18"/>
       <c r="C483" s="18"/>
     </row>
-    <row r="484" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="18"/>
-      <c r="B484" s="18"/>
-      <c r="C484" s="18"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U168">
-    <sortCondition ref="T2:T168"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U167">
+    <sortCondition ref="T2:T167"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/egret.xlsx
+++ b/data/egret.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/egret/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toluamuwo/Documents/WL2022/egret/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111E263F-F2C2-C84F-A410-7ED137669736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="22540" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="22540" windowHeight="15900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -18,8 +17,14 @@
     <sheet name="data_detailed" sheetId="1" r:id="rId3"/>
     <sheet name="source_ill" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12227" uniqueCount="2645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12234" uniqueCount="2647">
   <si>
     <t>datasetID</t>
   </si>
@@ -7969,12 +7974,18 @@
   </si>
   <si>
     <t>CRD</t>
+  </si>
+  <si>
+    <t>no data to scrape</t>
+  </si>
+  <si>
+    <t>lLL needed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -8446,38 +8457,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -8485,7 +8496,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -8951,10 +8962,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
@@ -8969,7 +8980,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -8983,7 +8994,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -8991,7 +9002,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -8999,7 +9010,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
@@ -9007,7 +9018,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
@@ -9015,7 +9026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -9023,7 +9034,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
@@ -9031,7 +9042,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
@@ -9039,7 +9050,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>87</v>
       </c>
@@ -9047,7 +9058,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
@@ -9055,7 +9066,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>91</v>
       </c>
@@ -9063,7 +9074,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>93</v>
       </c>
@@ -9071,7 +9082,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>95</v>
       </c>
@@ -9079,7 +9090,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>97</v>
       </c>
@@ -9087,7 +9098,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>99</v>
       </c>
@@ -9146,7 +9157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -9154,7 +9165,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -9162,7 +9173,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -9170,7 +9181,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
@@ -9178,7 +9189,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -9186,7 +9197,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -9194,7 +9205,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>779</v>
       </c>
@@ -9202,7 +9213,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -9210,7 +9221,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -9218,7 +9229,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>128</v>
       </c>
@@ -9226,7 +9237,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>129</v>
       </c>
@@ -9234,7 +9245,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>126</v>
       </c>
@@ -9242,7 +9253,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
@@ -9250,7 +9261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>12</v>
       </c>
@@ -9258,7 +9269,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>13</v>
       </c>
@@ -9266,7 +9277,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>156</v>
       </c>
@@ -9274,7 +9285,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>157</v>
       </c>
@@ -9282,7 +9293,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>154</v>
       </c>
@@ -9290,7 +9301,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>153</v>
       </c>
@@ -9298,7 +9309,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>14</v>
       </c>
@@ -9306,7 +9317,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>15</v>
       </c>
@@ -9314,7 +9325,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>16</v>
       </c>
@@ -9322,7 +9333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
@@ -9330,7 +9341,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
@@ -9338,7 +9349,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>19</v>
       </c>
@@ -9346,7 +9357,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>20</v>
       </c>
@@ -9354,7 +9365,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>21</v>
       </c>
@@ -9362,7 +9373,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>140</v>
       </c>
@@ -9370,7 +9381,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>23</v>
       </c>
@@ -9378,7 +9389,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>24</v>
       </c>
@@ -9386,7 +9397,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>25</v>
       </c>
@@ -9394,7 +9405,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -9402,7 +9413,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>27</v>
       </c>
@@ -9410,7 +9421,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>28</v>
       </c>
@@ -9418,7 +9429,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>790</v>
       </c>
@@ -9426,7 +9437,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
@@ -9434,7 +9445,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>30</v>
       </c>
@@ -9442,7 +9453,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -9450,7 +9461,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>31</v>
       </c>
@@ -9458,7 +9469,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>32</v>
       </c>
@@ -9466,7 +9477,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>33</v>
       </c>
@@ -9474,7 +9485,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>34</v>
       </c>
@@ -9490,7 +9501,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>35</v>
       </c>
@@ -9498,7 +9509,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>93</v>
       </c>
@@ -9522,10 +9533,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V488"/>
   <sheetViews>
-    <sheetView topLeftCell="H158" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H158" workbookViewId="0">
       <selection activeCell="L179" sqref="L179"/>
     </sheetView>
   </sheetViews>
@@ -33042,7 +33053,7 @@
       <c r="T488" s="19"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T488">
+  <sortState ref="A2:T488">
     <sortCondition ref="T2:T488"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33050,10 +33061,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS267"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="AC1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AP1" sqref="AP1:AP1048576"/>
     </sheetView>
@@ -33064,7 +33075,7 @@
     <col min="35" max="35" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -55587,11 +55598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H154" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34:T63"/>
+    <sheetView tabSelected="1" topLeftCell="F136" workbookViewId="0">
+      <selection activeCell="Q159" sqref="Q159:Q167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64385,7 +64396,7 @@
         <v>795</v>
       </c>
       <c r="Q159" s="18" t="s">
-        <v>936</v>
+        <v>189</v>
       </c>
       <c r="R159" s="18" t="s">
         <v>276</v>
@@ -64445,7 +64456,7 @@
         <v>810</v>
       </c>
       <c r="Q160" s="18" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="R160" s="18" t="s">
         <v>190</v>
@@ -64496,7 +64507,9 @@
       <c r="P161" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="Q161" s="18"/>
+      <c r="Q161" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="R161" s="18" t="s">
         <v>227</v>
       </c>
@@ -64550,7 +64563,9 @@
       <c r="P162" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="Q162" s="18"/>
+      <c r="Q162" s="18" t="s">
+        <v>2645</v>
+      </c>
       <c r="R162" s="18" t="s">
         <v>227</v>
       </c>
@@ -64606,7 +64621,9 @@
       <c r="P163" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="Q163" s="18"/>
+      <c r="Q163" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="R163" s="18" t="s">
         <v>276</v>
       </c>
@@ -64662,7 +64679,9 @@
       <c r="P164" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="Q164" s="18"/>
+      <c r="Q164" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="R164" s="18" t="s">
         <v>38</v>
       </c>
@@ -64714,7 +64733,9 @@
       <c r="P165" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="Q165" s="18"/>
+      <c r="Q165" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="R165" s="18" t="s">
         <v>38</v>
       </c>
@@ -64768,7 +64789,9 @@
       <c r="P166" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="Q166" s="18"/>
+      <c r="Q166" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="R166" s="18" t="s">
         <v>276</v>
       </c>
@@ -64824,7 +64847,9 @@
       <c r="P167" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="Q167" s="18"/>
+      <c r="Q167" s="18" t="s">
+        <v>2646</v>
+      </c>
       <c r="R167" s="18" t="s">
         <v>276</v>
       </c>
@@ -72386,7 +72411,7 @@
       <c r="C483" s="18"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U167">
+  <sortState ref="A2:U167">
     <sortCondition ref="T2:T167"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/egret.xlsx
+++ b/data/egret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/egret/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB9228D-1CA3-3D45-AC0D-6C533E6A5645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF658DC-0F21-614F-B8E5-857573D78650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-1620" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12234" uniqueCount="2647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12281" uniqueCount="2648">
   <si>
     <t>datasetID</t>
   </si>
@@ -7981,6 +7981,9 @@
   </si>
   <si>
     <t>lLL needed</t>
+  </si>
+  <si>
+    <t>not in english</t>
   </si>
 </sst>
 </file>
@@ -9527,7 +9530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V488"/>
   <sheetViews>
-    <sheetView topLeftCell="H158" workbookViewId="0">
+    <sheetView topLeftCell="D75" workbookViewId="0">
       <selection activeCell="L179" sqref="L179"/>
     </sheetView>
   </sheetViews>
@@ -33026,9 +33029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS267"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP1" sqref="AP1:AP1048576"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK196" sqref="AK196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55563,8 +55566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57232,6 +57235,12 @@
       <c r="K34" t="s">
         <v>188</v>
       </c>
+      <c r="L34" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M34" t="s">
+        <v>2647</v>
+      </c>
       <c r="P34" t="s">
         <v>795</v>
       </c>
@@ -57279,6 +57288,12 @@
       <c r="K35" t="s">
         <v>188</v>
       </c>
+      <c r="L35" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M35" t="s">
+        <v>2647</v>
+      </c>
       <c r="R35" t="s">
         <v>276</v>
       </c>
@@ -57323,6 +57338,12 @@
       <c r="K36" t="s">
         <v>188</v>
       </c>
+      <c r="L36" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M36" t="s">
+        <v>2647</v>
+      </c>
       <c r="R36" t="s">
         <v>227</v>
       </c>
@@ -57370,6 +57391,12 @@
       <c r="K37" t="s">
         <v>188</v>
       </c>
+      <c r="L37" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M37" t="s">
+        <v>2647</v>
+      </c>
       <c r="R37" t="s">
         <v>227</v>
       </c>
@@ -57417,6 +57444,12 @@
       <c r="K38" t="s">
         <v>188</v>
       </c>
+      <c r="L38" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M38" t="s">
+        <v>2647</v>
+      </c>
       <c r="R38" t="s">
         <v>227</v>
       </c>
@@ -57464,6 +57497,12 @@
       <c r="K39" t="s">
         <v>188</v>
       </c>
+      <c r="L39" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M39" t="s">
+        <v>2647</v>
+      </c>
       <c r="R39" t="s">
         <v>227</v>
       </c>
@@ -57511,6 +57550,12 @@
       <c r="K40" t="s">
         <v>188</v>
       </c>
+      <c r="L40" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M40" t="s">
+        <v>2647</v>
+      </c>
       <c r="P40" t="s">
         <v>42</v>
       </c>
@@ -57561,6 +57606,12 @@
       <c r="K41" t="s">
         <v>188</v>
       </c>
+      <c r="L41" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M41" t="s">
+        <v>2647</v>
+      </c>
       <c r="P41" t="s">
         <v>42</v>
       </c>
@@ -57605,6 +57656,12 @@
       <c r="K42" t="s">
         <v>188</v>
       </c>
+      <c r="L42" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M42" t="s">
+        <v>2647</v>
+      </c>
       <c r="P42" t="s">
         <v>2158</v>
       </c>
@@ -57655,6 +57712,12 @@
       <c r="K43" t="s">
         <v>188</v>
       </c>
+      <c r="L43" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M43" t="s">
+        <v>2647</v>
+      </c>
       <c r="R43" t="s">
         <v>333</v>
       </c>
@@ -57699,6 +57762,12 @@
       <c r="K44" t="s">
         <v>188</v>
       </c>
+      <c r="L44" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M44" t="s">
+        <v>2647</v>
+      </c>
       <c r="P44" t="s">
         <v>42</v>
       </c>
@@ -57749,6 +57818,12 @@
       <c r="K45" t="s">
         <v>188</v>
       </c>
+      <c r="L45" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M45" t="s">
+        <v>2647</v>
+      </c>
       <c r="N45" t="s">
         <v>189</v>
       </c>
@@ -57802,6 +57877,12 @@
       <c r="K46" t="s">
         <v>188</v>
       </c>
+      <c r="L46" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M46" t="s">
+        <v>2647</v>
+      </c>
       <c r="N46" t="s">
         <v>821</v>
       </c>
@@ -57855,6 +57936,12 @@
       <c r="K47" t="s">
         <v>188</v>
       </c>
+      <c r="L47" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M47" t="s">
+        <v>2647</v>
+      </c>
       <c r="P47" t="s">
         <v>795</v>
       </c>
@@ -57902,6 +57989,9 @@
       <c r="K48" t="s">
         <v>188</v>
       </c>
+      <c r="N48" t="s">
+        <v>642</v>
+      </c>
       <c r="P48" t="s">
         <v>795</v>
       </c>
@@ -57952,6 +58042,12 @@
       <c r="K49" t="s">
         <v>188</v>
       </c>
+      <c r="L49" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M49" t="s">
+        <v>2647</v>
+      </c>
       <c r="P49" t="s">
         <v>795</v>
       </c>
@@ -58002,6 +58098,12 @@
       <c r="K50" t="s">
         <v>188</v>
       </c>
+      <c r="L50" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M50" t="s">
+        <v>2647</v>
+      </c>
       <c r="P50" t="s">
         <v>795</v>
       </c>
@@ -58052,6 +58154,9 @@
       <c r="K51" t="s">
         <v>188</v>
       </c>
+      <c r="N51" t="s">
+        <v>189</v>
+      </c>
       <c r="P51" t="s">
         <v>844</v>
       </c>
@@ -58103,7 +58208,7 @@
         <v>188</v>
       </c>
       <c r="N52" t="s">
-        <v>189</v>
+        <v>642</v>
       </c>
       <c r="P52" t="s">
         <v>795</v>
@@ -58155,6 +58260,9 @@
       <c r="K53" t="s">
         <v>188</v>
       </c>
+      <c r="N53" t="s">
+        <v>642</v>
+      </c>
       <c r="P53" t="s">
         <v>795</v>
       </c>
@@ -58199,6 +58307,9 @@
       <c r="K54" t="s">
         <v>188</v>
       </c>
+      <c r="N54" t="s">
+        <v>189</v>
+      </c>
       <c r="P54" t="s">
         <v>795</v>
       </c>
@@ -58246,6 +58357,9 @@
       <c r="K55" t="s">
         <v>188</v>
       </c>
+      <c r="N55" t="s">
+        <v>642</v>
+      </c>
       <c r="P55" t="s">
         <v>795</v>
       </c>
@@ -58296,6 +58410,9 @@
       <c r="K56" t="s">
         <v>188</v>
       </c>
+      <c r="N56" t="s">
+        <v>642</v>
+      </c>
       <c r="P56" t="s">
         <v>795</v>
       </c>
@@ -58346,6 +58463,9 @@
       <c r="K57" t="s">
         <v>188</v>
       </c>
+      <c r="N57" t="s">
+        <v>642</v>
+      </c>
       <c r="P57" t="s">
         <v>795</v>
       </c>
@@ -58396,6 +58516,12 @@
       <c r="K58" t="s">
         <v>188</v>
       </c>
+      <c r="L58" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M58" t="s">
+        <v>2647</v>
+      </c>
       <c r="R58" t="s">
         <v>227</v>
       </c>
@@ -58443,6 +58569,9 @@
       <c r="K59" t="s">
         <v>188</v>
       </c>
+      <c r="N59" t="s">
+        <v>189</v>
+      </c>
       <c r="P59" t="s">
         <v>47</v>
       </c>
@@ -58493,6 +58622,9 @@
       <c r="K60" t="s">
         <v>188</v>
       </c>
+      <c r="N60" t="s">
+        <v>642</v>
+      </c>
       <c r="P60" t="s">
         <v>795</v>
       </c>
@@ -58540,6 +58672,9 @@
       <c r="K61" t="s">
         <v>188</v>
       </c>
+      <c r="N61" t="s">
+        <v>189</v>
+      </c>
       <c r="P61" t="s">
         <v>795</v>
       </c>
@@ -58590,6 +58725,12 @@
       <c r="K62" t="s">
         <v>188</v>
       </c>
+      <c r="L62" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M62" t="s">
+        <v>2647</v>
+      </c>
       <c r="P62" t="s">
         <v>795</v>
       </c>
@@ -58639,6 +58780,9 @@
       </c>
       <c r="K63" t="s">
         <v>188</v>
+      </c>
+      <c r="N63" t="s">
+        <v>189</v>
       </c>
       <c r="P63" t="s">
         <v>795</v>

--- a/data/egret.xlsx
+++ b/data/egret.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/egret/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17782\Documents\GitHub\egret\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF658DC-0F21-614F-B8E5-857573D78650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC2CBC-BF22-4A29-A67C-C11622A4DF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-1620" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12281" uniqueCount="2648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12281" uniqueCount="2651">
   <si>
     <t>datasetID</t>
   </si>
@@ -7984,6 +7984,15 @@
   </si>
   <si>
     <t>not in english</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>in prog</t>
+  </si>
+  <si>
+    <t>reject</t>
   </si>
 </sst>
 </file>
@@ -8959,22 +8968,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -8985,10 +8994,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -8996,7 +9005,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -9004,7 +9013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
@@ -9012,7 +9021,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
@@ -9020,7 +9029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -9028,7 +9037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
@@ -9036,7 +9045,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
@@ -9044,7 +9053,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>87</v>
       </c>
@@ -9052,7 +9061,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
@@ -9060,7 +9069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>91</v>
       </c>
@@ -9068,7 +9077,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>93</v>
       </c>
@@ -9076,7 +9085,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>95</v>
       </c>
@@ -9084,7 +9093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>97</v>
       </c>
@@ -9092,7 +9101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>99</v>
       </c>
@@ -9103,7 +9112,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="2" t="s">
         <v>102</v>
@@ -9112,7 +9121,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>104</v>
@@ -9121,7 +9130,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>106</v>
@@ -9130,7 +9139,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -9138,12 +9147,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>113</v>
       </c>
@@ -9151,7 +9160,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -9159,7 +9168,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -9167,7 +9176,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
@@ -9175,7 +9184,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
@@ -9183,7 +9192,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -9191,7 +9200,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -9199,7 +9208,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>779</v>
       </c>
@@ -9207,7 +9216,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -9215,7 +9224,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -9223,7 +9232,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>128</v>
       </c>
@@ -9231,7 +9240,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>129</v>
       </c>
@@ -9239,7 +9248,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>126</v>
       </c>
@@ -9247,7 +9256,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
@@ -9255,7 +9264,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
@@ -9263,7 +9272,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -9271,7 +9280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>156</v>
       </c>
@@ -9279,7 +9288,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>157</v>
       </c>
@@ -9287,7 +9296,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>154</v>
       </c>
@@ -9295,7 +9304,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>153</v>
       </c>
@@ -9303,7 +9312,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>14</v>
       </c>
@@ -9311,7 +9320,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -9319,7 +9328,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>16</v>
       </c>
@@ -9327,7 +9336,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>17</v>
       </c>
@@ -9335,7 +9344,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
@@ -9343,7 +9352,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
@@ -9351,7 +9360,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -9359,7 +9368,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>21</v>
       </c>
@@ -9367,7 +9376,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>140</v>
       </c>
@@ -9375,7 +9384,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>23</v>
       </c>
@@ -9383,7 +9392,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>24</v>
       </c>
@@ -9391,7 +9400,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>25</v>
       </c>
@@ -9399,7 +9408,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>26</v>
       </c>
@@ -9407,7 +9416,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>27</v>
       </c>
@@ -9415,7 +9424,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>28</v>
       </c>
@@ -9423,7 +9432,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>790</v>
       </c>
@@ -9431,7 +9440,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>29</v>
       </c>
@@ -9439,7 +9448,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>30</v>
       </c>
@@ -9447,7 +9456,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>149</v>
       </c>
@@ -9455,7 +9464,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>31</v>
       </c>
@@ -9463,7 +9472,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>32</v>
       </c>
@@ -9471,7 +9480,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>33</v>
       </c>
@@ -9479,7 +9488,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>34</v>
       </c>
@@ -9487,7 +9496,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>784</v>
       </c>
@@ -9495,7 +9504,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>35</v>
       </c>
@@ -9503,7 +9512,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>93</v>
       </c>
@@ -9530,21 +9539,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V488"/>
   <sheetViews>
-    <sheetView topLeftCell="D75" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L179" sqref="L179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="80.1640625" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="80.19921875" customWidth="1"/>
+    <col min="18" max="18" width="15.19921875" customWidth="1"/>
+    <col min="19" max="19" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>172</v>
       </c>
@@ -9606,7 +9615,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>334</v>
       </c>
@@ -9653,7 +9662,7 @@
       </c>
       <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>187</v>
       </c>
@@ -9703,7 +9712,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
@@ -9755,7 +9764,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>187</v>
       </c>
@@ -9808,7 +9817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>187</v>
       </c>
@@ -9863,7 +9872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>187</v>
       </c>
@@ -9917,7 +9926,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>187</v>
       </c>
@@ -9969,7 +9978,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>187</v>
       </c>
@@ -10024,7 +10033,7 @@
       </c>
       <c r="U9" s="21"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>187</v>
       </c>
@@ -10076,7 +10085,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>187</v>
       </c>
@@ -10129,7 +10138,7 @@
       </c>
       <c r="U11" s="21"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>187</v>
       </c>
@@ -10182,7 +10191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>187</v>
       </c>
@@ -10235,7 +10244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>187</v>
       </c>
@@ -10290,7 +10299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>187</v>
       </c>
@@ -10342,7 +10351,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>187</v>
       </c>
@@ -10394,7 +10403,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>187</v>
       </c>
@@ -10446,7 +10455,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>187</v>
       </c>
@@ -10501,7 +10510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>187</v>
       </c>
@@ -10556,7 +10565,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>187</v>
       </c>
@@ -10609,7 +10618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>187</v>
       </c>
@@ -10662,7 +10671,7 @@
       </c>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>187</v>
       </c>
@@ -10715,7 +10724,7 @@
       </c>
       <c r="U22" s="21"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>187</v>
       </c>
@@ -10772,7 +10781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>187</v>
       </c>
@@ -10825,7 +10834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>187</v>
       </c>
@@ -10878,7 +10887,7 @@
       </c>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>187</v>
       </c>
@@ -10933,7 +10942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>187</v>
       </c>
@@ -10986,7 +10995,7 @@
       </c>
       <c r="U27" s="21"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>187</v>
       </c>
@@ -11039,7 +11048,7 @@
       </c>
       <c r="U28" s="21"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>187</v>
       </c>
@@ -11094,7 +11103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>187</v>
       </c>
@@ -11151,7 +11160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>187</v>
       </c>
@@ -11206,7 +11215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>187</v>
       </c>
@@ -11261,7 +11270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>187</v>
       </c>
@@ -11314,7 +11323,7 @@
       </c>
       <c r="U33" s="21"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>187</v>
       </c>
@@ -11364,7 +11373,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>187</v>
       </c>
@@ -11414,7 +11423,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>187</v>
       </c>
@@ -11466,7 +11475,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>187</v>
       </c>
@@ -11516,7 +11525,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>187</v>
       </c>
@@ -11566,7 +11575,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>2384</v>
       </c>
@@ -11610,7 +11619,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>187</v>
       </c>
@@ -11660,7 +11669,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>187</v>
       </c>
@@ -11717,7 +11726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>187</v>
       </c>
@@ -11772,7 +11781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>375</v>
       </c>
@@ -11823,7 +11832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>187</v>
       </c>
@@ -11876,7 +11885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>187</v>
       </c>
@@ -11929,7 +11938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>187</v>
       </c>
@@ -11984,7 +11993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>187</v>
       </c>
@@ -12037,7 +12046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>187</v>
       </c>
@@ -12092,7 +12101,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>187</v>
       </c>
@@ -12147,7 +12156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>187</v>
       </c>
@@ -12204,7 +12213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>2384</v>
       </c>
@@ -12248,7 +12257,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>187</v>
       </c>
@@ -12300,7 +12309,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>187</v>
       </c>
@@ -12350,7 +12359,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>187</v>
       </c>
@@ -12409,7 +12418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>187</v>
       </c>
@@ -12463,7 +12472,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>187</v>
       </c>
@@ -12516,7 +12525,7 @@
       </c>
       <c r="U56" s="18"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>187</v>
       </c>
@@ -12569,7 +12578,7 @@
       </c>
       <c r="U57" s="18"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>187</v>
       </c>
@@ -12622,7 +12631,7 @@
       </c>
       <c r="U58" s="18"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>187</v>
       </c>
@@ -12675,7 +12684,7 @@
       </c>
       <c r="U59" s="18"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>187</v>
       </c>
@@ -12728,7 +12737,7 @@
       </c>
       <c r="U60" s="18"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>187</v>
       </c>
@@ -12785,7 +12794,7 @@
       </c>
       <c r="U61" s="18"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
         <v>187</v>
       </c>
@@ -12840,7 +12849,7 @@
       </c>
       <c r="U62" s="18"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
         <v>187</v>
       </c>
@@ -12895,7 +12904,7 @@
       </c>
       <c r="U63" s="18"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>187</v>
       </c>
@@ -12950,7 +12959,7 @@
       </c>
       <c r="U64" s="18"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
         <v>187</v>
       </c>
@@ -13007,7 +13016,7 @@
       </c>
       <c r="U65" s="18"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>187</v>
       </c>
@@ -13062,7 +13071,7 @@
       </c>
       <c r="U66" s="18"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -13109,7 +13118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -13153,7 +13162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -13203,7 +13212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -13253,7 +13262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>187</v>
       </c>
@@ -13300,7 +13309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -13344,7 +13353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
         <v>187</v>
       </c>
@@ -13396,7 +13405,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>187</v>
       </c>
@@ -13448,7 +13457,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="18" t="s">
         <v>187</v>
       </c>
@@ -13500,7 +13509,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
         <v>187</v>
       </c>
@@ -13552,7 +13561,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
         <v>187</v>
       </c>
@@ -13603,7 +13612,7 @@
       </c>
       <c r="U77" s="18"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>187</v>
       </c>
@@ -13656,7 +13665,7 @@
       </c>
       <c r="U78" s="18"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>187</v>
       </c>
@@ -13703,7 +13712,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>187</v>
       </c>
@@ -13750,7 +13759,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -13797,7 +13806,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -13844,7 +13853,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -13891,7 +13900,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -13938,7 +13947,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>187</v>
       </c>
@@ -13985,7 +13994,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -14032,7 +14041,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -14079,7 +14088,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -14123,7 +14132,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -14170,7 +14179,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -14217,7 +14226,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -14264,7 +14273,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -14308,7 +14317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>187</v>
       </c>
@@ -14355,7 +14364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -14405,7 +14414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -14449,7 +14458,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>334</v>
       </c>
@@ -14490,7 +14499,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>334</v>
       </c>
@@ -14534,7 +14543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>334</v>
       </c>
@@ -14575,7 +14584,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>187</v>
       </c>
@@ -14622,7 +14631,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>187</v>
       </c>
@@ -14669,7 +14678,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -14716,7 +14725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>187</v>
       </c>
@@ -14760,7 +14769,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>187</v>
       </c>
@@ -14804,7 +14813,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -14851,7 +14860,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -14898,7 +14907,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>187</v>
       </c>
@@ -14945,7 +14954,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>187</v>
       </c>
@@ -14995,7 +15004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -15045,7 +15054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>187</v>
       </c>
@@ -15095,7 +15104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>187</v>
       </c>
@@ -15139,7 +15148,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>187</v>
       </c>
@@ -15183,7 +15192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -15227,7 +15236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -15268,7 +15277,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -15309,7 +15318,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>187</v>
       </c>
@@ -15350,7 +15359,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>187</v>
       </c>
@@ -15397,7 +15406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>187</v>
       </c>
@@ -15444,7 +15453,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -15491,7 +15500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>187</v>
       </c>
@@ -15538,7 +15547,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>187</v>
       </c>
@@ -15585,7 +15594,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>187</v>
       </c>
@@ -15635,7 +15644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>187</v>
       </c>
@@ -15685,7 +15694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>187</v>
       </c>
@@ -15735,7 +15744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>187</v>
       </c>
@@ -15782,7 +15791,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>187</v>
       </c>
@@ -15832,7 +15841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -15876,7 +15885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>187</v>
       </c>
@@ -15923,7 +15932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>187</v>
       </c>
@@ -15970,7 +15979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
         <v>187</v>
       </c>
@@ -16020,7 +16029,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>187</v>
       </c>
@@ -16064,7 +16073,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>373</v>
       </c>
@@ -16114,7 +16123,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -16155,7 +16164,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>187</v>
       </c>
@@ -16202,7 +16211,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -16249,7 +16258,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
         <v>187</v>
       </c>
@@ -16306,7 +16315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
         <v>187</v>
       </c>
@@ -16361,7 +16370,7 @@
       </c>
       <c r="U136" s="18"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="18" t="s">
         <v>187</v>
       </c>
@@ -16414,7 +16423,7 @@
       </c>
       <c r="U137" s="18"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
         <v>187</v>
       </c>
@@ -16471,7 +16480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="18" t="s">
         <v>187</v>
       </c>
@@ -16526,7 +16535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="18" t="s">
         <v>187</v>
       </c>
@@ -16579,7 +16588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="18" t="s">
         <v>187</v>
       </c>
@@ -16634,7 +16643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="18" t="s">
         <v>187</v>
       </c>
@@ -16689,7 +16698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="18" t="s">
         <v>187</v>
       </c>
@@ -16741,7 +16750,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>187</v>
       </c>
@@ -16789,7 +16798,7 @@
       </c>
       <c r="U144" s="18"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>187</v>
       </c>
@@ -16839,7 +16848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>187</v>
       </c>
@@ -16892,7 +16901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>187</v>
       </c>
@@ -16939,7 +16948,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>187</v>
       </c>
@@ -16992,7 +17001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>187</v>
       </c>
@@ -17036,7 +17045,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>187</v>
       </c>
@@ -17083,7 +17092,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -17133,7 +17142,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>187</v>
       </c>
@@ -17180,7 +17189,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>373</v>
       </c>
@@ -17224,7 +17233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>187</v>
       </c>
@@ -17271,7 +17280,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>187</v>
       </c>
@@ -17318,7 +17327,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -17365,7 +17374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>187</v>
       </c>
@@ -17412,7 +17421,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -17465,7 +17474,7 @@
       </c>
       <c r="U158"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="16" t="s">
         <v>187</v>
       </c>
@@ -17515,7 +17524,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>187</v>
       </c>
@@ -17565,7 +17574,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>187</v>
       </c>
@@ -17615,7 +17624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -17662,7 +17671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>187</v>
       </c>
@@ -17712,7 +17721,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>187</v>
       </c>
@@ -17765,7 +17774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>187</v>
       </c>
@@ -17815,7 +17824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>187</v>
       </c>
@@ -17862,7 +17871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -17912,7 +17921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>187</v>
       </c>
@@ -17962,7 +17971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>187</v>
       </c>
@@ -18012,7 +18021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>187</v>
       </c>
@@ -18062,7 +18071,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -18112,7 +18121,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>187</v>
       </c>
@@ -18159,7 +18168,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -18203,7 +18212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -18253,7 +18262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -18303,7 +18312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -18353,7 +18362,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>187</v>
       </c>
@@ -18403,7 +18412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>187</v>
       </c>
@@ -18456,7 +18465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -18506,7 +18515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>187</v>
       </c>
@@ -18556,7 +18565,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -18606,7 +18615,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -18656,7 +18665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>187</v>
       </c>
@@ -18706,7 +18715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="18" t="s">
         <v>187</v>
       </c>
@@ -18757,7 +18766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
         <v>187</v>
       </c>
@@ -18809,7 +18818,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="18" t="s">
         <v>187</v>
       </c>
@@ -18863,7 +18872,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="18" t="s">
         <v>187</v>
       </c>
@@ -18915,7 +18924,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="18" t="s">
         <v>187</v>
       </c>
@@ -18969,7 +18978,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -19016,7 +19025,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -19060,7 +19069,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>187</v>
       </c>
@@ -19110,7 +19119,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -19160,7 +19169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>187</v>
       </c>
@@ -19207,7 +19216,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>187</v>
       </c>
@@ -19257,7 +19266,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>187</v>
       </c>
@@ -19307,7 +19316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>187</v>
       </c>
@@ -19357,7 +19366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -19404,7 +19413,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -19451,7 +19460,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>187</v>
       </c>
@@ -19498,7 +19507,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>187</v>
       </c>
@@ -19545,7 +19554,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>187</v>
       </c>
@@ -19598,7 +19607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>187</v>
       </c>
@@ -19645,7 +19654,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -19689,7 +19698,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>187</v>
       </c>
@@ -19733,7 +19742,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>187</v>
       </c>
@@ -19783,7 +19792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>187</v>
       </c>
@@ -19833,7 +19842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>187</v>
       </c>
@@ -19880,7 +19889,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>187</v>
       </c>
@@ -19927,7 +19936,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>187</v>
       </c>
@@ -19974,7 +19983,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>187</v>
       </c>
@@ -20024,7 +20033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>187</v>
       </c>
@@ -20068,7 +20077,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>187</v>
       </c>
@@ -20115,7 +20124,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>187</v>
       </c>
@@ -20165,7 +20174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>373</v>
       </c>
@@ -20209,7 +20218,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>187</v>
       </c>
@@ -20256,7 +20265,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>375</v>
       </c>
@@ -20297,7 +20306,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>375</v>
       </c>
@@ -20338,7 +20347,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>375</v>
       </c>
@@ -20382,7 +20391,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>373</v>
       </c>
@@ -20429,7 +20438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>323</v>
       </c>
@@ -20476,7 +20485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>187</v>
       </c>
@@ -20523,7 +20532,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>187</v>
       </c>
@@ -20570,7 +20579,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>187</v>
       </c>
@@ -20620,7 +20629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>187</v>
       </c>
@@ -20667,7 +20676,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>187</v>
       </c>
@@ -20714,7 +20723,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>187</v>
       </c>
@@ -20761,7 +20770,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>187</v>
       </c>
@@ -20805,7 +20814,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>187</v>
       </c>
@@ -20852,7 +20861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>187</v>
       </c>
@@ -20899,7 +20908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>187</v>
       </c>
@@ -20946,7 +20955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>187</v>
       </c>
@@ -20993,7 +21002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>187</v>
       </c>
@@ -21040,7 +21049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>187</v>
       </c>
@@ -21087,7 +21096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>187</v>
       </c>
@@ -21125,7 +21134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>187</v>
       </c>
@@ -21172,7 +21181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>187</v>
       </c>
@@ -21219,7 +21228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>187</v>
       </c>
@@ -21263,7 +21272,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>187</v>
       </c>
@@ -21298,7 +21307,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>187</v>
       </c>
@@ -21342,7 +21351,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>187</v>
       </c>
@@ -21386,7 +21395,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>187</v>
       </c>
@@ -21430,7 +21439,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>187</v>
       </c>
@@ -21477,7 +21486,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>187</v>
       </c>
@@ -21524,7 +21533,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>187</v>
       </c>
@@ -21571,7 +21580,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>187</v>
       </c>
@@ -21618,7 +21627,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>187</v>
       </c>
@@ -21665,7 +21674,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>187</v>
       </c>
@@ -21712,7 +21721,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>187</v>
       </c>
@@ -21759,7 +21768,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>187</v>
       </c>
@@ -21806,7 +21815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>187</v>
       </c>
@@ -21853,7 +21862,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>187</v>
       </c>
@@ -21900,7 +21909,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>187</v>
       </c>
@@ -21947,7 +21956,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>187</v>
       </c>
@@ -21994,7 +22003,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>187</v>
       </c>
@@ -22038,7 +22047,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>187</v>
       </c>
@@ -22085,7 +22094,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>187</v>
       </c>
@@ -22132,7 +22141,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>187</v>
       </c>
@@ -22179,7 +22188,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>187</v>
       </c>
@@ -22229,7 +22238,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>187</v>
       </c>
@@ -22276,7 +22285,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>375</v>
       </c>
@@ -22317,7 +22326,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>187</v>
       </c>
@@ -22364,7 +22373,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>187</v>
       </c>
@@ -22411,7 +22420,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>187</v>
       </c>
@@ -22458,7 +22467,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>187</v>
       </c>
@@ -22505,7 +22514,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>187</v>
       </c>
@@ -22552,7 +22561,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>187</v>
       </c>
@@ -22599,7 +22608,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>187</v>
       </c>
@@ -22646,7 +22655,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>373</v>
       </c>
@@ -22693,7 +22702,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>373</v>
       </c>
@@ -22740,7 +22749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>187</v>
       </c>
@@ -22787,7 +22796,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>187</v>
       </c>
@@ -22834,7 +22843,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>187</v>
       </c>
@@ -22878,7 +22887,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>187</v>
       </c>
@@ -22925,7 +22934,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>187</v>
       </c>
@@ -22972,7 +22981,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>187</v>
       </c>
@@ -23022,7 +23031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>187</v>
       </c>
@@ -23069,7 +23078,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -23116,7 +23125,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>187</v>
       </c>
@@ -23160,7 +23169,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>187</v>
       </c>
@@ -23207,7 +23216,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>187</v>
       </c>
@@ -23254,7 +23263,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>187</v>
       </c>
@@ -23301,7 +23310,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>187</v>
       </c>
@@ -23345,7 +23354,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>187</v>
       </c>
@@ -23392,7 +23401,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>187</v>
       </c>
@@ -23442,7 +23451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>187</v>
       </c>
@@ -23489,7 +23498,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>187</v>
       </c>
@@ -23536,7 +23545,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>187</v>
       </c>
@@ -23583,7 +23592,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>187</v>
       </c>
@@ -23630,7 +23639,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>187</v>
       </c>
@@ -23677,7 +23686,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>187</v>
       </c>
@@ -23724,7 +23733,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>187</v>
       </c>
@@ -23768,7 +23777,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>187</v>
       </c>
@@ -23815,7 +23824,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>187</v>
       </c>
@@ -23862,7 +23871,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>187</v>
       </c>
@@ -23906,7 +23915,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>187</v>
       </c>
@@ -23953,7 +23962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>187</v>
       </c>
@@ -23994,7 +24003,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>187</v>
       </c>
@@ -24038,7 +24047,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>187</v>
       </c>
@@ -24082,7 +24091,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>187</v>
       </c>
@@ -24126,7 +24135,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>187</v>
       </c>
@@ -24170,7 +24179,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>187</v>
       </c>
@@ -24214,7 +24223,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>187</v>
       </c>
@@ -24261,7 +24270,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>187</v>
       </c>
@@ -24311,7 +24320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>187</v>
       </c>
@@ -24361,7 +24370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>187</v>
       </c>
@@ -24411,7 +24420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>187</v>
       </c>
@@ -24458,7 +24467,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>187</v>
       </c>
@@ -24508,7 +24517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>187</v>
       </c>
@@ -24558,7 +24567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>187</v>
       </c>
@@ -24605,7 +24614,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>187</v>
       </c>
@@ -24652,7 +24661,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>187</v>
       </c>
@@ -24699,7 +24708,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>187</v>
       </c>
@@ -24749,7 +24758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>187</v>
       </c>
@@ -24799,7 +24808,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>187</v>
       </c>
@@ -24846,7 +24855,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>187</v>
       </c>
@@ -24890,7 +24899,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>187</v>
       </c>
@@ -24937,7 +24946,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -24981,7 +24990,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>187</v>
       </c>
@@ -25025,7 +25034,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>187</v>
       </c>
@@ -25069,7 +25078,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>187</v>
       </c>
@@ -25113,7 +25122,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>187</v>
       </c>
@@ -25160,7 +25169,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>187</v>
       </c>
@@ -25207,7 +25216,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>187</v>
       </c>
@@ -25254,7 +25263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>187</v>
       </c>
@@ -25295,7 +25304,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>187</v>
       </c>
@@ -25339,7 +25348,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>187</v>
       </c>
@@ -25386,7 +25395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>187</v>
       </c>
@@ -25433,7 +25442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>2384</v>
       </c>
@@ -25465,7 +25474,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>2384</v>
       </c>
@@ -25494,7 +25503,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>187</v>
       </c>
@@ -25541,7 +25550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>187</v>
       </c>
@@ -25588,7 +25597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>187</v>
       </c>
@@ -25632,7 +25641,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>187</v>
       </c>
@@ -25679,7 +25688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>187</v>
       </c>
@@ -25726,7 +25735,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>187</v>
       </c>
@@ -25770,7 +25779,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>187</v>
       </c>
@@ -25814,7 +25823,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>187</v>
       </c>
@@ -25858,7 +25867,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>187</v>
       </c>
@@ -25902,7 +25911,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>187</v>
       </c>
@@ -25949,7 +25958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>187</v>
       </c>
@@ -25996,7 +26005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>373</v>
       </c>
@@ -26040,7 +26049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>187</v>
       </c>
@@ -26087,7 +26096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>187</v>
       </c>
@@ -26134,7 +26143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>187</v>
       </c>
@@ -26181,7 +26190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>187</v>
       </c>
@@ -26228,7 +26237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>323</v>
       </c>
@@ -26272,7 +26281,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>187</v>
       </c>
@@ -26322,7 +26331,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>187</v>
       </c>
@@ -26363,7 +26372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>187</v>
       </c>
@@ -26407,7 +26416,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>187</v>
       </c>
@@ -26451,7 +26460,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>187</v>
       </c>
@@ -26495,7 +26504,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>187</v>
       </c>
@@ -26539,7 +26548,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>187</v>
       </c>
@@ -26586,7 +26595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>187</v>
       </c>
@@ -26633,7 +26642,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>187</v>
       </c>
@@ -26680,7 +26689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>187</v>
       </c>
@@ -26724,7 +26733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>187</v>
       </c>
@@ -26768,7 +26777,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>187</v>
       </c>
@@ -26812,7 +26821,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>187</v>
       </c>
@@ -26856,7 +26865,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>187</v>
       </c>
@@ -26903,7 +26912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>187</v>
       </c>
@@ -26947,7 +26956,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>187</v>
       </c>
@@ -26991,7 +27000,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>187</v>
       </c>
@@ -27035,7 +27044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>187</v>
       </c>
@@ -27079,7 +27088,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>187</v>
       </c>
@@ -27126,7 +27135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A366" s="18" t="s">
         <v>187</v>
       </c>
@@ -27183,7 +27192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A367" s="18" t="s">
         <v>187</v>
       </c>
@@ -27235,7 +27244,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>187</v>
       </c>
@@ -27282,7 +27291,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>187</v>
       </c>
@@ -27329,7 +27338,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>187</v>
       </c>
@@ -27373,7 +27382,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>187</v>
       </c>
@@ -27420,7 +27429,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -27464,7 +27473,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>187</v>
       </c>
@@ -27514,7 +27523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>187</v>
       </c>
@@ -27561,7 +27570,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>187</v>
       </c>
@@ -27608,7 +27617,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>187</v>
       </c>
@@ -27655,7 +27664,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>187</v>
       </c>
@@ -27702,7 +27711,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>187</v>
       </c>
@@ -27752,7 +27761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>187</v>
       </c>
@@ -27799,7 +27808,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>187</v>
       </c>
@@ -27849,7 +27858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>187</v>
       </c>
@@ -27896,7 +27905,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>187</v>
       </c>
@@ -27943,7 +27952,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>187</v>
       </c>
@@ -27990,7 +27999,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>187</v>
       </c>
@@ -28040,7 +28049,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>187</v>
       </c>
@@ -28093,7 +28102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>187</v>
       </c>
@@ -28140,7 +28149,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="387" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>187</v>
       </c>
@@ -28190,7 +28199,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>187</v>
       </c>
@@ -28240,7 +28249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>187</v>
       </c>
@@ -28290,7 +28299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>187</v>
       </c>
@@ -28340,7 +28349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>187</v>
       </c>
@@ -28390,7 +28399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>187</v>
       </c>
@@ -28431,7 +28440,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>373</v>
       </c>
@@ -28475,7 +28484,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>187</v>
       </c>
@@ -28522,7 +28531,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>187</v>
       </c>
@@ -28569,7 +28578,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>187</v>
       </c>
@@ -28613,7 +28622,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>187</v>
       </c>
@@ -28660,7 +28669,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>375</v>
       </c>
@@ -28701,7 +28710,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>187</v>
       </c>
@@ -28748,7 +28757,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>187</v>
       </c>
@@ -28798,7 +28807,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>187</v>
       </c>
@@ -28848,7 +28857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>187</v>
       </c>
@@ -28895,7 +28904,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>187</v>
       </c>
@@ -28942,7 +28951,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>187</v>
       </c>
@@ -28989,7 +28998,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>187</v>
       </c>
@@ -29036,7 +29045,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>187</v>
       </c>
@@ -29083,7 +29092,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="407" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>187</v>
       </c>
@@ -29135,7 +29144,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>187</v>
       </c>
@@ -29185,7 +29194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>187</v>
       </c>
@@ -29235,7 +29244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>187</v>
       </c>
@@ -29282,7 +29291,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>187</v>
       </c>
@@ -29332,7 +29341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>187</v>
       </c>
@@ -29382,7 +29391,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>187</v>
       </c>
@@ -29437,7 +29446,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="414" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>187</v>
       </c>
@@ -29489,7 +29498,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>187</v>
       </c>
@@ -29536,7 +29545,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>373</v>
       </c>
@@ -29580,7 +29589,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>187</v>
       </c>
@@ -29627,7 +29636,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>187</v>
       </c>
@@ -29677,7 +29686,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>187</v>
       </c>
@@ -29727,7 +29736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>187</v>
       </c>
@@ -29774,7 +29783,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>187</v>
       </c>
@@ -29824,7 +29833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>187</v>
       </c>
@@ -29865,7 +29874,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>187</v>
       </c>
@@ -29906,7 +29915,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="424" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>187</v>
       </c>
@@ -29958,7 +29967,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="425" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>187</v>
       </c>
@@ -30013,7 +30022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>187</v>
       </c>
@@ -30057,7 +30066,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>187</v>
       </c>
@@ -30104,7 +30113,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>187</v>
       </c>
@@ -30154,7 +30163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>187</v>
       </c>
@@ -30201,7 +30210,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>187</v>
       </c>
@@ -30248,7 +30257,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>187</v>
       </c>
@@ -30298,7 +30307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>187</v>
       </c>
@@ -30345,7 +30354,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>187</v>
       </c>
@@ -30389,7 +30398,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>187</v>
       </c>
@@ -30433,7 +30442,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>187</v>
       </c>
@@ -30480,7 +30489,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>187</v>
       </c>
@@ -30527,7 +30536,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>187</v>
       </c>
@@ -30574,7 +30583,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A438" s="18" t="s">
         <v>187</v>
       </c>
@@ -30628,7 +30637,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A439" s="18" t="s">
         <v>187</v>
       </c>
@@ -30687,7 +30696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A440" s="18" t="s">
         <v>187</v>
       </c>
@@ -30737,7 +30746,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A441" s="18" t="s">
         <v>187</v>
       </c>
@@ -30791,7 +30800,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>334</v>
       </c>
@@ -30832,7 +30841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>187</v>
       </c>
@@ -30879,7 +30888,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>187</v>
       </c>
@@ -30926,7 +30935,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>187</v>
       </c>
@@ -30973,7 +30982,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>187</v>
       </c>
@@ -31017,7 +31026,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>187</v>
       </c>
@@ -31064,7 +31073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>187</v>
       </c>
@@ -31111,7 +31120,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>187</v>
       </c>
@@ -31158,7 +31167,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>187</v>
       </c>
@@ -31205,7 +31214,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>187</v>
       </c>
@@ -31252,7 +31261,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>187</v>
       </c>
@@ -31302,7 +31311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>187</v>
       </c>
@@ -31349,7 +31358,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>187</v>
       </c>
@@ -31396,7 +31405,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>187</v>
       </c>
@@ -31440,7 +31449,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>187</v>
       </c>
@@ -31487,7 +31496,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>187</v>
       </c>
@@ -31534,7 +31543,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>187</v>
       </c>
@@ -31581,7 +31590,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>187</v>
       </c>
@@ -31628,7 +31637,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>187</v>
       </c>
@@ -31672,7 +31681,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>187</v>
       </c>
@@ -31725,7 +31734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>187</v>
       </c>
@@ -31772,7 +31781,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>187</v>
       </c>
@@ -31819,7 +31828,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>187</v>
       </c>
@@ -31866,7 +31875,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>187</v>
       </c>
@@ -31916,7 +31925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>187</v>
       </c>
@@ -31963,7 +31972,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>187</v>
       </c>
@@ -32007,7 +32016,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>187</v>
       </c>
@@ -32054,7 +32063,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>375</v>
       </c>
@@ -32098,7 +32107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>187</v>
       </c>
@@ -32142,7 +32151,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>187</v>
       </c>
@@ -32189,7 +32198,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>187</v>
       </c>
@@ -32236,7 +32245,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>187</v>
       </c>
@@ -32286,7 +32295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>187</v>
       </c>
@@ -32333,7 +32342,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>187</v>
       </c>
@@ -32380,7 +32389,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>187</v>
       </c>
@@ -32427,7 +32436,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>187</v>
       </c>
@@ -32474,7 +32483,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>187</v>
       </c>
@@ -32521,7 +32530,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>187</v>
       </c>
@@ -32568,7 +32577,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>187</v>
       </c>
@@ -32618,7 +32627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>187</v>
       </c>
@@ -32665,7 +32674,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A482" s="18" t="s">
         <v>187</v>
       </c>
@@ -32711,7 +32720,7 @@
       </c>
       <c r="T482" s="18"/>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A483" s="15" t="s">
         <v>187</v>
       </c>
@@ -32763,7 +32772,7 @@
       </c>
       <c r="T483" s="15"/>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A484" s="15" t="s">
         <v>187</v>
       </c>
@@ -32815,7 +32824,7 @@
       </c>
       <c r="T484" s="15"/>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A485" s="15" t="s">
         <v>187</v>
       </c>
@@ -32865,7 +32874,7 @@
       </c>
       <c r="T485" s="15"/>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A486" s="15" t="s">
         <v>187</v>
       </c>
@@ -32915,7 +32924,7 @@
       </c>
       <c r="T486" s="15"/>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A487" s="15" t="s">
         <v>187</v>
       </c>
@@ -32967,7 +32976,7 @@
       </c>
       <c r="T487" s="15"/>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A488" s="15" t="s">
         <v>187</v>
       </c>
@@ -33029,18 +33038,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS267"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="AF1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AK196" sqref="AK196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="22" max="22" width="10.83203125" style="8"/>
+    <col min="22" max="22" width="10.796875" style="8"/>
     <col min="35" max="35" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -33177,7 +33186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -33284,7 +33293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -33391,7 +33400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -33498,7 +33507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -33605,7 +33614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -33712,7 +33721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -33819,7 +33828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -33926,7 +33935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -34033,7 +34042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -34137,7 +34146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -34241,7 +34250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -34345,7 +34354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -34449,7 +34458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -34553,7 +34562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -34657,7 +34666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -34761,7 +34770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -34865,7 +34874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -34969,7 +34978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -35073,7 +35082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -35177,7 +35186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -35281,7 +35290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -35385,7 +35394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -35489,7 +35498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -35593,7 +35602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -35697,7 +35706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -35801,7 +35810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -35905,7 +35914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -36009,7 +36018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -36113,7 +36122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -36217,7 +36226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -36321,7 +36330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -36425,7 +36434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -36529,7 +36538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -36636,7 +36645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -36743,7 +36752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -36835,7 +36844,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -36930,7 +36939,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -37022,7 +37031,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -37114,7 +37123,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -37203,7 +37212,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -37292,7 +37301,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -37384,7 +37393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -37476,7 +37485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -37568,7 +37577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -37657,7 +37666,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -37746,7 +37755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -37838,7 +37847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -37930,7 +37939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -38022,7 +38031,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -38111,7 +38120,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -38200,7 +38209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -38292,7 +38301,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -38384,7 +38393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -38476,7 +38485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -38565,7 +38574,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -38660,7 +38669,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -38757,7 +38766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -38854,7 +38863,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -38951,7 +38960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -39046,7 +39055,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -39141,7 +39150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -39238,7 +39247,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -39335,7 +39344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -39432,7 +39441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -39527,7 +39536,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -39616,7 +39625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -39708,7 +39717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -39800,7 +39809,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -39892,7 +39901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -39981,7 +39990,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -40070,7 +40079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -40162,7 +40171,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -40254,7 +40263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -40346,7 +40355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -40435,7 +40444,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -40524,7 +40533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -40616,7 +40625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -40708,7 +40717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -40800,7 +40809,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -40889,7 +40898,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -40978,7 +40987,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -41070,7 +41079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -41162,7 +41171,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -41254,7 +41263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -41343,7 +41352,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -41438,7 +41447,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -41535,7 +41544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -41632,7 +41641,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -41729,7 +41738,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>58</v>
       </c>
@@ -41824,7 +41833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>58</v>
       </c>
@@ -41919,7 +41928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -42015,7 +42024,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -42112,7 +42121,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>58</v>
       </c>
@@ -42208,7 +42217,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -42302,7 +42311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>58</v>
       </c>
@@ -42392,7 +42401,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -42485,7 +42494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>58</v>
       </c>
@@ -42577,7 +42586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -42670,7 +42679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>58</v>
       </c>
@@ -42760,7 +42769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -42850,7 +42859,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -42943,7 +42952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>58</v>
       </c>
@@ -43035,7 +43044,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>58</v>
       </c>
@@ -43128,7 +43137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -43218,7 +43227,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -43307,7 +43316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>58</v>
       </c>
@@ -43399,7 +43408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>58</v>
       </c>
@@ -43491,7 +43500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>58</v>
       </c>
@@ -43583,7 +43592,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -43672,7 +43681,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>58</v>
       </c>
@@ -43761,7 +43770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>58</v>
       </c>
@@ -43853,7 +43862,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -43945,7 +43954,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>58</v>
       </c>
@@ -44037,7 +44046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>58</v>
       </c>
@@ -44126,7 +44135,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -44220,7 +44229,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>58</v>
       </c>
@@ -44316,7 +44325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>58</v>
       </c>
@@ -44413,7 +44422,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>58</v>
       </c>
@@ -44509,7 +44518,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>58</v>
       </c>
@@ -44603,7 +44612,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>58</v>
       </c>
@@ -44697,7 +44706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>58</v>
       </c>
@@ -44793,7 +44802,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>58</v>
       </c>
@@ -44890,7 +44899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>58</v>
       </c>
@@ -44986,7 +44995,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>58</v>
       </c>
@@ -45080,7 +45089,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>58</v>
       </c>
@@ -45164,7 +45173,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -45250,7 +45259,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>58</v>
       </c>
@@ -45336,7 +45345,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>58</v>
       </c>
@@ -45422,7 +45431,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>58</v>
       </c>
@@ -45505,7 +45514,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -45589,7 +45598,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>58</v>
       </c>
@@ -45676,7 +45685,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>58</v>
       </c>
@@ -45762,7 +45771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>58</v>
       </c>
@@ -45849,7 +45858,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>58</v>
       </c>
@@ -45933,7 +45942,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>58</v>
       </c>
@@ -46017,7 +46026,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>58</v>
       </c>
@@ -46104,7 +46113,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>58</v>
       </c>
@@ -46190,7 +46199,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>58</v>
       </c>
@@ -46277,7 +46286,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>58</v>
       </c>
@@ -46361,7 +46370,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>58</v>
       </c>
@@ -46444,7 +46453,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>58</v>
       </c>
@@ -46530,7 +46539,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>58</v>
       </c>
@@ -46616,7 +46625,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>58</v>
       </c>
@@ -46702,7 +46711,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>58</v>
       </c>
@@ -46785,7 +46794,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>58</v>
       </c>
@@ -46872,7 +46881,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>58</v>
       </c>
@@ -46961,7 +46970,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>58</v>
       </c>
@@ -47051,7 +47060,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>58</v>
       </c>
@@ -47140,7 +47149,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>58</v>
       </c>
@@ -47227,7 +47236,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -47314,7 +47323,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>58</v>
       </c>
@@ -47403,7 +47412,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>58</v>
       </c>
@@ -47493,7 +47502,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>58</v>
       </c>
@@ -47582,7 +47591,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -47669,7 +47678,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>58</v>
       </c>
@@ -47756,7 +47765,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -47846,7 +47855,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -47936,7 +47945,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -48026,7 +48035,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>58</v>
       </c>
@@ -48113,7 +48122,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>58</v>
       </c>
@@ -48201,7 +48210,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>58</v>
       </c>
@@ -48291,7 +48300,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>58</v>
       </c>
@@ -48381,7 +48390,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>58</v>
       </c>
@@ -48471,7 +48480,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>58</v>
       </c>
@@ -48558,7 +48567,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>58</v>
       </c>
@@ -48642,7 +48651,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>58</v>
       </c>
@@ -48729,7 +48738,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>58</v>
       </c>
@@ -48815,7 +48824,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>58</v>
       </c>
@@ -48902,7 +48911,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>58</v>
       </c>
@@ -48986,7 +48995,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>58</v>
       </c>
@@ -49070,7 +49079,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>58</v>
       </c>
@@ -49157,7 +49166,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>58</v>
       </c>
@@ -49243,7 +49252,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>58</v>
       </c>
@@ -49330,7 +49339,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>58</v>
       </c>
@@ -49414,7 +49423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>58</v>
       </c>
@@ -49497,7 +49506,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>58</v>
       </c>
@@ -49583,7 +49592,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>58</v>
       </c>
@@ -49669,7 +49678,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>58</v>
       </c>
@@ -49755,7 +49764,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>58</v>
       </c>
@@ -49838,7 +49847,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>58</v>
       </c>
@@ -49921,7 +49930,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>58</v>
       </c>
@@ -50007,7 +50016,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>58</v>
       </c>
@@ -50093,7 +50102,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>58</v>
       </c>
@@ -50179,7 +50188,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>58</v>
       </c>
@@ -50262,7 +50271,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>58</v>
       </c>
@@ -50349,7 +50358,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>58</v>
       </c>
@@ -50438,7 +50447,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>58</v>
       </c>
@@ -50528,7 +50537,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>58</v>
       </c>
@@ -50617,7 +50626,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>58</v>
       </c>
@@ -50704,7 +50713,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>58</v>
       </c>
@@ -50791,7 +50800,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>58</v>
       </c>
@@ -50880,7 +50889,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>58</v>
       </c>
@@ -50970,7 +50979,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>58</v>
       </c>
@@ -51059,7 +51068,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>58</v>
       </c>
@@ -51146,7 +51155,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>58</v>
       </c>
@@ -51234,7 +51243,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>58</v>
       </c>
@@ -51324,7 +51333,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>58</v>
       </c>
@@ -51414,7 +51423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>58</v>
       </c>
@@ -51504,7 +51513,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>58</v>
       </c>
@@ -51591,7 +51600,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>58</v>
       </c>
@@ -51679,7 +51688,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>58</v>
       </c>
@@ -51770,7 +51779,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>58</v>
       </c>
@@ -51860,7 +51869,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>58</v>
       </c>
@@ -51951,7 +51960,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>58</v>
       </c>
@@ -52039,7 +52048,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>58</v>
       </c>
@@ -52123,7 +52132,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>58</v>
       </c>
@@ -52210,7 +52219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -52296,7 +52305,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>58</v>
       </c>
@@ -52383,7 +52392,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>58</v>
       </c>
@@ -52467,7 +52476,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>58</v>
       </c>
@@ -52550,7 +52559,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>58</v>
       </c>
@@ -52636,7 +52645,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>58</v>
       </c>
@@ -52722,7 +52731,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>58</v>
       </c>
@@ -52808,7 +52817,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>58</v>
       </c>
@@ -52891,7 +52900,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>58</v>
       </c>
@@ -52974,7 +52983,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>58</v>
       </c>
@@ -53060,7 +53069,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>58</v>
       </c>
@@ -53146,7 +53155,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>58</v>
       </c>
@@ -53232,7 +53241,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>58</v>
       </c>
@@ -53315,7 +53324,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>58</v>
       </c>
@@ -53398,7 +53407,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>58</v>
       </c>
@@ -53484,7 +53493,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>58</v>
       </c>
@@ -53570,7 +53579,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>58</v>
       </c>
@@ -53656,7 +53665,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>58</v>
       </c>
@@ -53739,7 +53748,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>58</v>
       </c>
@@ -53826,7 +53835,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>58</v>
       </c>
@@ -53915,7 +53924,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>58</v>
       </c>
@@ -54005,7 +54014,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>58</v>
       </c>
@@ -54094,7 +54103,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>58</v>
       </c>
@@ -54181,7 +54190,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>58</v>
       </c>
@@ -54269,7 +54278,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>58</v>
       </c>
@@ -54358,7 +54367,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>58</v>
       </c>
@@ -54448,7 +54457,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>58</v>
       </c>
@@ -54537,7 +54546,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>58</v>
       </c>
@@ -54624,7 +54633,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>58</v>
       </c>
@@ -54712,7 +54721,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>58</v>
       </c>
@@ -54803,7 +54812,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>58</v>
       </c>
@@ -54893,7 +54902,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>58</v>
       </c>
@@ -54984,7 +54993,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>58</v>
       </c>
@@ -55072,7 +55081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>58</v>
       </c>
@@ -55160,7 +55169,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -55251,7 +55260,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>58</v>
       </c>
@@ -55341,7 +55350,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>58</v>
       </c>
@@ -55432,7 +55441,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>58</v>
       </c>
@@ -55520,40 +55529,40 @@
         <v>171</v>
       </c>
     </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.3">
       <c r="V246"/>
     </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.3">
       <c r="V247"/>
     </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.3">
       <c r="V248"/>
     </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.3">
       <c r="V249"/>
     </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.3">
       <c r="V250"/>
     </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.3">
       <c r="V251"/>
     </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.3">
       <c r="V252"/>
     </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.3">
       <c r="V253"/>
     </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.3">
       <c r="V254"/>
     </row>
-    <row r="255" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.3">
       <c r="V255"/>
     </row>
-    <row r="266" spans="29:29" x14ac:dyDescent="0.2">
+    <row r="266" spans="29:29" x14ac:dyDescent="0.3">
       <c r="AC266" s="2"/>
     </row>
-    <row r="267" spans="29:29" x14ac:dyDescent="0.2">
+    <row r="267" spans="29:29" x14ac:dyDescent="0.3">
       <c r="AC267" s="2"/>
     </row>
   </sheetData>
@@ -55566,16 +55575,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="N92" zoomScale="150" workbookViewId="0">
+      <selection activeCell="U85" sqref="U85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>172</v>
       </c>
@@ -55640,7 +55649,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>187</v>
       </c>
@@ -55687,7 +55696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -55737,7 +55746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -55784,7 +55793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -55831,7 +55840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -55881,7 +55890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -55931,7 +55940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -55981,7 +55990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>187</v>
       </c>
@@ -56028,7 +56037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -56075,7 +56084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -56125,7 +56134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -56175,7 +56184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -56225,7 +56234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>187</v>
       </c>
@@ -56275,7 +56284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -56325,7 +56334,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -56375,7 +56384,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>375</v>
       </c>
@@ -56419,7 +56428,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -56466,7 +56475,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -56513,7 +56522,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -56563,7 +56572,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>187</v>
       </c>
@@ -56610,7 +56619,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>187</v>
       </c>
@@ -56660,7 +56669,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>187</v>
       </c>
@@ -56710,7 +56719,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>187</v>
       </c>
@@ -56763,7 +56772,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>187</v>
       </c>
@@ -56816,7 +56825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>187</v>
       </c>
@@ -56869,7 +56878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -56913,7 +56922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -56960,7 +56969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>187</v>
       </c>
@@ -57010,7 +57019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -57054,7 +57063,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>187</v>
       </c>
@@ -57101,7 +57110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>187</v>
       </c>
@@ -57151,7 +57160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>187</v>
       </c>
@@ -57201,7 +57210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -57257,7 +57266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -57307,7 +57316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>187</v>
       </c>
@@ -57357,7 +57366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>187</v>
       </c>
@@ -57410,7 +57419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>187</v>
       </c>
@@ -57463,7 +57472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -57516,7 +57525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -57572,7 +57581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>187</v>
       </c>
@@ -57628,7 +57637,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>187</v>
       </c>
@@ -57678,7 +57687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -57731,7 +57740,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>187</v>
       </c>
@@ -57784,7 +57793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -57843,7 +57852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -57902,7 +57911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>187</v>
       </c>
@@ -57958,7 +57967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>187</v>
       </c>
@@ -58008,7 +58017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>187</v>
       </c>
@@ -58064,7 +58073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -58120,7 +58129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>187</v>
       </c>
@@ -58173,7 +58182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>187</v>
       </c>
@@ -58226,7 +58235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>187</v>
       </c>
@@ -58279,7 +58288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>373</v>
       </c>
@@ -58326,7 +58335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>187</v>
       </c>
@@ -58376,7 +58385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>187</v>
       </c>
@@ -58429,7 +58438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>187</v>
       </c>
@@ -58482,7 +58491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -58535,7 +58544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>187</v>
       </c>
@@ -58588,7 +58597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -58641,7 +58650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>187</v>
       </c>
@@ -58691,7 +58700,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -58747,7 +58756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -58800,7 +58809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>187</v>
       </c>
@@ -58850,7 +58859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -58900,7 +58909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -58950,7 +58959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -58997,7 +59006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -59041,7 +59050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -59091,7 +59100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -59141,7 +59150,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>187</v>
       </c>
@@ -59191,7 +59200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -59241,7 +59250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -59291,7 +59300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>187</v>
       </c>
@@ -59341,7 +59350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>187</v>
       </c>
@@ -59391,7 +59400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>187</v>
       </c>
@@ -59441,7 +59450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>187</v>
       </c>
@@ -59491,7 +59500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>187</v>
       </c>
@@ -59544,7 +59553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>187</v>
       </c>
@@ -59591,10 +59600,10 @@
         <v>276</v>
       </c>
       <c r="U79" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>187</v>
       </c>
@@ -59644,7 +59653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -59694,7 +59703,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -59744,7 +59753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -59794,7 +59803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -59844,10 +59853,10 @@
         <v>276</v>
       </c>
       <c r="U84" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>187</v>
       </c>
@@ -59897,7 +59906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -59947,7 +59956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -59997,7 +60006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>373</v>
       </c>
@@ -60044,7 +60053,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>323</v>
       </c>
@@ -60091,7 +60100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -60138,10 +60147,10 @@
         <v>276</v>
       </c>
       <c r="U90" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -60185,10 +60194,10 @@
         <v>276</v>
       </c>
       <c r="U91" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -60232,10 +60241,10 @@
         <v>276</v>
       </c>
       <c r="U92" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>187</v>
       </c>
@@ -60279,10 +60288,10 @@
         <v>276</v>
       </c>
       <c r="U93" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -60326,10 +60335,10 @@
         <v>276</v>
       </c>
       <c r="U94" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -60376,7 +60385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>187</v>
       </c>
@@ -60420,10 +60429,10 @@
         <v>276</v>
       </c>
       <c r="U96" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>187</v>
       </c>
@@ -60458,10 +60467,10 @@
         <v>276</v>
       </c>
       <c r="U97" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -60505,10 +60514,10 @@
         <v>276</v>
       </c>
       <c r="U98" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>187</v>
       </c>
@@ -60552,10 +60561,10 @@
         <v>276</v>
       </c>
       <c r="U99" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>187</v>
       </c>
@@ -60602,7 +60611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -60652,7 +60661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>373</v>
       </c>
@@ -60699,7 +60708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>373</v>
       </c>
@@ -60746,7 +60755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -60796,7 +60805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -60846,7 +60855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>187</v>
       </c>
@@ -60893,7 +60902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>187</v>
       </c>
@@ -60937,7 +60946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -60987,7 +60996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>187</v>
       </c>
@@ -61037,7 +61046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>187</v>
       </c>
@@ -61087,7 +61096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>187</v>
       </c>
@@ -61137,7 +61146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -61187,7 +61196,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -61237,7 +61246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -61287,7 +61296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>187</v>
       </c>
@@ -61334,7 +61343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>187</v>
       </c>
@@ -61381,7 +61390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>187</v>
       </c>
@@ -61428,7 +61437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -61475,7 +61484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>187</v>
       </c>
@@ -61522,7 +61531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>187</v>
       </c>
@@ -61569,7 +61578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>187</v>
       </c>
@@ -61616,7 +61625,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>187</v>
       </c>
@@ -61663,7 +61672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>373</v>
       </c>
@@ -61707,7 +61716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>187</v>
       </c>
@@ -61754,7 +61763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>187</v>
       </c>
@@ -61801,7 +61810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -61848,7 +61857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>187</v>
       </c>
@@ -61895,7 +61904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>323</v>
       </c>
@@ -61939,7 +61948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>187</v>
       </c>
@@ -61980,7 +61989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>187</v>
       </c>
@@ -62027,7 +62036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>187</v>
       </c>
@@ -62074,7 +62083,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -62118,7 +62127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>187</v>
       </c>
@@ -62165,7 +62174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -62209,7 +62218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>187</v>
       </c>
@@ -62256,7 +62265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>187</v>
       </c>
@@ -62309,7 +62318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>187</v>
       </c>
@@ -62359,7 +62368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>187</v>
       </c>
@@ -62409,7 +62418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>187</v>
       </c>
@@ -62459,7 +62468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>187</v>
       </c>
@@ -62512,7 +62521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>187</v>
       </c>
@@ -62562,7 +62571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>187</v>
       </c>
@@ -62612,7 +62621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>187</v>
       </c>
@@ -62662,7 +62671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>187</v>
       </c>
@@ -62712,7 +62721,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>187</v>
       </c>
@@ -62762,7 +62771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>187</v>
       </c>
@@ -62812,7 +62821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>187</v>
       </c>
@@ -62862,7 +62871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>187</v>
       </c>
@@ -62912,7 +62921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>187</v>
       </c>
@@ -62962,7 +62971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>187</v>
       </c>
@@ -63012,7 +63021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -63062,7 +63071,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>187</v>
       </c>
@@ -63109,7 +63118,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>187</v>
       </c>
@@ -63159,7 +63168,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>187</v>
       </c>
@@ -63209,7 +63218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>187</v>
       </c>
@@ -63259,7 +63268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -63309,7 +63318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>187</v>
       </c>
@@ -63359,7 +63368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -63409,7 +63418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>187</v>
       </c>
@@ -63462,7 +63471,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>187</v>
       </c>
@@ -63518,7 +63527,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>334</v>
       </c>
@@ -63562,7 +63571,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -63612,7 +63621,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>187</v>
       </c>
@@ -63665,7 +63674,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>187</v>
       </c>
@@ -63718,7 +63727,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>375</v>
       </c>
@@ -63765,7 +63774,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>187</v>
       </c>
@@ -63815,7 +63824,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -63868,19 +63877,19 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F298" s="1"/>
     </row>
-    <row r="352" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F352" s="1"/>
     </row>
-    <row r="360" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F360" s="1"/>
     </row>
-    <row r="438" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F438" s="1"/>
     </row>
-    <row r="451" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F451" s="1"/>
     </row>
   </sheetData>

--- a/data/egret.xlsx
+++ b/data/egret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17782\Documents\GitHub\egret\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC2CBC-BF22-4A29-A67C-C11622A4DF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D97741-AB62-42BF-8A2A-2F7E6D64D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12281" uniqueCount="2651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12281" uniqueCount="2652">
   <si>
     <t>datasetID</t>
   </si>
@@ -7993,6 +7993,9 @@
   </si>
   <si>
     <t>reject</t>
+  </si>
+  <si>
+    <t>unavailable</t>
   </si>
 </sst>
 </file>
@@ -55575,8 +55578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N92" zoomScale="150" workbookViewId="0">
-      <selection activeCell="U85" sqref="U85"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="S89" sqref="S89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -60003,7 +60006,7 @@
         <v>276</v>
       </c>
       <c r="U87" t="s">
-        <v>42</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
@@ -60097,7 +60100,7 @@
         <v>276</v>
       </c>
       <c r="U89" t="s">
-        <v>42</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">

--- a/data/egret.xlsx
+++ b/data/egret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17782\Documents\GitHub\egret\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D97741-AB62-42BF-8A2A-2F7E6D64D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F702FA88-5F19-4316-A44A-E5B9D65A2FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12281" uniqueCount="2652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12281" uniqueCount="2653">
   <si>
     <t>datasetID</t>
   </si>
@@ -7996,6 +7996,9 @@
   </si>
   <si>
     <t>unavailable</t>
+  </si>
+  <si>
+    <t>ask BW/JN</t>
   </si>
 </sst>
 </file>
@@ -55578,8 +55581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="S89" sqref="S89"/>
+    <sheetView tabSelected="1" topLeftCell="M85" zoomScale="150" workbookViewId="0">
+      <selection activeCell="V92" sqref="V92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -59703,7 +59706,7 @@
         <v>276</v>
       </c>
       <c r="U81" t="s">
-        <v>42</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
@@ -59753,7 +59756,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>42</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
@@ -59803,7 +59806,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>42</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
@@ -59906,7 +59909,7 @@
         <v>276</v>
       </c>
       <c r="U85" t="s">
-        <v>42</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
@@ -59956,7 +59959,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>42</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
@@ -60053,7 +60056,7 @@
         <v>276</v>
       </c>
       <c r="U88" t="s">
-        <v>42</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">

--- a/data/egret.xlsx
+++ b/data/egret.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17782\Documents\GitHub\egret\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F702FA88-5F19-4316-A44A-E5B9D65A2FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6F6D04-41EB-48F6-A18D-8467B43665DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55581,8 +55581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M85" zoomScale="150" workbookViewId="0">
-      <selection activeCell="V92" sqref="V92"/>
+    <sheetView tabSelected="1" topLeftCell="M73" zoomScale="150" workbookViewId="0">
+      <selection activeCell="U98" sqref="U98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -60388,7 +60388,7 @@
         <v>276</v>
       </c>
       <c r="U95" t="s">
-        <v>42</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">

--- a/data/egret.xlsx
+++ b/data/egret.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17782\Documents\GitHub\egret\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toluamuwo/Documents/WL2022/egret/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6F6D04-41EB-48F6-A18D-8467B43665DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="13900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -18,10 +17,13 @@
     <sheet name="data_detailed" sheetId="1" r:id="rId3"/>
     <sheet name="source_ill" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,15 +34,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12281" uniqueCount="2653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12301" uniqueCount="2657">
   <si>
     <t>datasetID</t>
   </si>
@@ -7980,9 +7979,6 @@
     <t>no data to scrape</t>
   </si>
   <si>
-    <t>lLL needed</t>
-  </si>
-  <si>
     <t>not in english</t>
   </si>
   <si>
@@ -7999,13 +7995,28 @@
   </si>
   <si>
     <t>ask BW/JN</t>
+  </si>
+  <si>
+    <t>given to JN</t>
+  </si>
+  <si>
+    <t>scraped</t>
+  </si>
+  <si>
+    <t>cannot find...likely not in english</t>
+  </si>
+  <si>
+    <t>only found a poster, no actual article</t>
+  </si>
+  <si>
+    <t>ill requested…never received paper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8152,6 +8163,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="37">
@@ -8567,7 +8583,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8597,6 +8613,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8971,14 +8988,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="70.5" customWidth="1"/>
@@ -8989,7 +9006,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>72</v>
       </c>
@@ -9003,7 +9020,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -9011,7 +9028,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -9019,7 +9036,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
@@ -9027,7 +9044,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
@@ -9035,7 +9052,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -9043,7 +9060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
@@ -9051,7 +9068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
@@ -9059,7 +9076,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>87</v>
       </c>
@@ -9067,7 +9084,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
@@ -9075,7 +9092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>91</v>
       </c>
@@ -9083,7 +9100,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>93</v>
       </c>
@@ -9091,7 +9108,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>95</v>
       </c>
@@ -9099,7 +9116,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>97</v>
       </c>
@@ -9107,7 +9124,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>99</v>
       </c>
@@ -9166,7 +9183,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -9174,7 +9191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -9182,7 +9199,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
@@ -9190,7 +9207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
@@ -9198,7 +9215,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -9206,7 +9223,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -9214,7 +9231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>779</v>
       </c>
@@ -9222,7 +9239,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -9230,7 +9247,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -9238,7 +9255,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>128</v>
       </c>
@@ -9246,7 +9263,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>129</v>
       </c>
@@ -9254,7 +9271,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>126</v>
       </c>
@@ -9262,7 +9279,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
@@ -9270,7 +9287,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
@@ -9278,7 +9295,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -9286,7 +9303,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>156</v>
       </c>
@@ -9294,7 +9311,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>157</v>
       </c>
@@ -9302,7 +9319,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>154</v>
       </c>
@@ -9310,7 +9327,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>153</v>
       </c>
@@ -9318,7 +9335,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>14</v>
       </c>
@@ -9326,7 +9343,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -9334,7 +9351,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>16</v>
       </c>
@@ -9342,7 +9359,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>17</v>
       </c>
@@ -9350,7 +9367,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
@@ -9358,7 +9375,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
@@ -9366,7 +9383,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -9374,7 +9391,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>21</v>
       </c>
@@ -9382,7 +9399,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>140</v>
       </c>
@@ -9390,7 +9407,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>23</v>
       </c>
@@ -9398,7 +9415,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>24</v>
       </c>
@@ -9406,7 +9423,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>25</v>
       </c>
@@ -9414,7 +9431,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>26</v>
       </c>
@@ -9422,7 +9439,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>27</v>
       </c>
@@ -9430,7 +9447,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>28</v>
       </c>
@@ -9438,7 +9455,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>790</v>
       </c>
@@ -9446,7 +9463,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>29</v>
       </c>
@@ -9454,7 +9471,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>30</v>
       </c>
@@ -9462,7 +9479,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>149</v>
       </c>
@@ -9470,7 +9487,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>31</v>
       </c>
@@ -9478,7 +9495,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>32</v>
       </c>
@@ -9486,7 +9503,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>33</v>
       </c>
@@ -9494,7 +9511,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>34</v>
       </c>
@@ -9502,7 +9519,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>784</v>
       </c>
@@ -9510,7 +9527,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>35</v>
       </c>
@@ -9518,7 +9535,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>93</v>
       </c>
@@ -9542,21 +9559,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V488"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L179" sqref="L179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="80.19921875" customWidth="1"/>
-    <col min="18" max="18" width="15.19921875" customWidth="1"/>
-    <col min="19" max="19" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="80.1640625" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -11276,7 +11293,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>187</v>
       </c>
@@ -11481,7 +11498,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>187</v>
       </c>
@@ -11531,7 +11548,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>187</v>
       </c>
@@ -11581,7 +11598,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>2384</v>
       </c>
@@ -11625,7 +11642,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>187</v>
       </c>
@@ -11675,7 +11692,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>187</v>
       </c>
@@ -11732,7 +11749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>187</v>
       </c>
@@ -11787,7 +11804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>375</v>
       </c>
@@ -11838,7 +11855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>187</v>
       </c>
@@ -11891,7 +11908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>187</v>
       </c>
@@ -11944,7 +11961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>187</v>
       </c>
@@ -11999,7 +12016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>187</v>
       </c>
@@ -12052,7 +12069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>187</v>
       </c>
@@ -12107,7 +12124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>187</v>
       </c>
@@ -12162,7 +12179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>187</v>
       </c>
@@ -12219,7 +12236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
         <v>2384</v>
       </c>
@@ -12263,7 +12280,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
         <v>187</v>
       </c>
@@ -12315,7 +12332,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
         <v>187</v>
       </c>
@@ -12365,7 +12382,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>187</v>
       </c>
@@ -12424,7 +12441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>187</v>
       </c>
@@ -12478,7 +12495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>187</v>
       </c>
@@ -12531,7 +12548,7 @@
       </c>
       <c r="U56" s="18"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>187</v>
       </c>
@@ -12584,7 +12601,7 @@
       </c>
       <c r="U57" s="18"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>187</v>
       </c>
@@ -12637,7 +12654,7 @@
       </c>
       <c r="U58" s="18"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>187</v>
       </c>
@@ -12690,7 +12707,7 @@
       </c>
       <c r="U59" s="18"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>187</v>
       </c>
@@ -12743,7 +12760,7 @@
       </c>
       <c r="U60" s="18"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>187</v>
       </c>
@@ -12800,7 +12817,7 @@
       </c>
       <c r="U61" s="18"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>187</v>
       </c>
@@ -12855,7 +12872,7 @@
       </c>
       <c r="U62" s="18"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>187</v>
       </c>
@@ -12910,7 +12927,7 @@
       </c>
       <c r="U63" s="18"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>187</v>
       </c>
@@ -12965,7 +12982,7 @@
       </c>
       <c r="U64" s="18"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>187</v>
       </c>
@@ -13022,7 +13039,7 @@
       </c>
       <c r="U65" s="18"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>187</v>
       </c>
@@ -13077,7 +13094,7 @@
       </c>
       <c r="U66" s="18"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -13124,7 +13141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -13168,7 +13185,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -13218,7 +13235,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -13268,7 +13285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>187</v>
       </c>
@@ -13315,7 +13332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -13359,7 +13376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>187</v>
       </c>
@@ -13411,7 +13428,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>187</v>
       </c>
@@ -13463,7 +13480,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>187</v>
       </c>
@@ -13515,7 +13532,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>187</v>
       </c>
@@ -13567,7 +13584,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>187</v>
       </c>
@@ -13618,7 +13635,7 @@
       </c>
       <c r="U77" s="18"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>187</v>
       </c>
@@ -13671,7 +13688,7 @@
       </c>
       <c r="U78" s="18"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>187</v>
       </c>
@@ -13718,7 +13735,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>187</v>
       </c>
@@ -13765,7 +13782,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -13812,7 +13829,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -13859,7 +13876,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -13906,7 +13923,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -13953,7 +13970,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>187</v>
       </c>
@@ -14000,7 +14017,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -14047,7 +14064,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -14094,7 +14111,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -14138,7 +14155,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -14185,7 +14202,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -14232,7 +14249,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -14279,7 +14296,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -14323,7 +14340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>187</v>
       </c>
@@ -14370,7 +14387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -14420,7 +14437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -14464,7 +14481,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>334</v>
       </c>
@@ -14505,7 +14522,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>334</v>
       </c>
@@ -14549,7 +14566,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>334</v>
       </c>
@@ -14590,7 +14607,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>187</v>
       </c>
@@ -14637,7 +14654,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>187</v>
       </c>
@@ -14684,7 +14701,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -14731,7 +14748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>187</v>
       </c>
@@ -14775,7 +14792,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>187</v>
       </c>
@@ -14819,7 +14836,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -14866,7 +14883,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -14913,7 +14930,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>187</v>
       </c>
@@ -14960,7 +14977,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>187</v>
       </c>
@@ -15010,7 +15027,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -15060,7 +15077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>187</v>
       </c>
@@ -15110,7 +15127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>187</v>
       </c>
@@ -15154,7 +15171,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>187</v>
       </c>
@@ -15198,7 +15215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -15242,7 +15259,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -15283,7 +15300,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -15324,7 +15341,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>187</v>
       </c>
@@ -15365,7 +15382,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>187</v>
       </c>
@@ -15412,7 +15429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>187</v>
       </c>
@@ -15459,7 +15476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -15506,7 +15523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>187</v>
       </c>
@@ -15553,7 +15570,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>187</v>
       </c>
@@ -15600,7 +15617,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>187</v>
       </c>
@@ -15650,7 +15667,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>187</v>
       </c>
@@ -15700,7 +15717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>187</v>
       </c>
@@ -15750,7 +15767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>187</v>
       </c>
@@ -15797,7 +15814,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>187</v>
       </c>
@@ -15847,7 +15864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -15891,7 +15908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>187</v>
       </c>
@@ -15938,7 +15955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>187</v>
       </c>
@@ -15985,7 +16002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
         <v>187</v>
       </c>
@@ -16035,7 +16052,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>187</v>
       </c>
@@ -16079,7 +16096,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>373</v>
       </c>
@@ -16129,7 +16146,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -16170,7 +16187,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>187</v>
       </c>
@@ -16217,7 +16234,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -16264,7 +16281,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
         <v>187</v>
       </c>
@@ -16321,7 +16338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
         <v>187</v>
       </c>
@@ -16376,7 +16393,7 @@
       </c>
       <c r="U136" s="18"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
         <v>187</v>
       </c>
@@ -16429,7 +16446,7 @@
       </c>
       <c r="U137" s="18"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
         <v>187</v>
       </c>
@@ -16486,7 +16503,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
         <v>187</v>
       </c>
@@ -16541,7 +16558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
         <v>187</v>
       </c>
@@ -16594,7 +16611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
         <v>187</v>
       </c>
@@ -16649,7 +16666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
         <v>187</v>
       </c>
@@ -16704,7 +16721,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
         <v>187</v>
       </c>
@@ -16756,7 +16773,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>187</v>
       </c>
@@ -16804,7 +16821,7 @@
       </c>
       <c r="U144" s="18"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>187</v>
       </c>
@@ -16854,7 +16871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>187</v>
       </c>
@@ -16907,7 +16924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>187</v>
       </c>
@@ -16954,7 +16971,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>187</v>
       </c>
@@ -17007,7 +17024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>187</v>
       </c>
@@ -17051,7 +17068,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>187</v>
       </c>
@@ -17098,7 +17115,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -17148,7 +17165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>187</v>
       </c>
@@ -17195,7 +17212,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>373</v>
       </c>
@@ -17239,7 +17256,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>187</v>
       </c>
@@ -17286,7 +17303,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>187</v>
       </c>
@@ -17333,7 +17350,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -17380,7 +17397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>187</v>
       </c>
@@ -17427,7 +17444,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -17480,7 +17497,7 @@
       </c>
       <c r="U158"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="16" t="s">
         <v>187</v>
       </c>
@@ -17530,7 +17547,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>187</v>
       </c>
@@ -17580,7 +17597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>187</v>
       </c>
@@ -17630,7 +17647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -17677,7 +17694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>187</v>
       </c>
@@ -17727,7 +17744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>187</v>
       </c>
@@ -17780,7 +17797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>187</v>
       </c>
@@ -17830,7 +17847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>187</v>
       </c>
@@ -17877,7 +17894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -17927,7 +17944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>187</v>
       </c>
@@ -17977,7 +17994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>187</v>
       </c>
@@ -18027,7 +18044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>187</v>
       </c>
@@ -18077,7 +18094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -18127,7 +18144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>187</v>
       </c>
@@ -18174,7 +18191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -18218,7 +18235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -18268,7 +18285,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -18318,7 +18335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -18368,7 +18385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>187</v>
       </c>
@@ -18418,7 +18435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>187</v>
       </c>
@@ -18471,7 +18488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -18521,7 +18538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>187</v>
       </c>
@@ -18571,7 +18588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -18621,7 +18638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -18671,7 +18688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>187</v>
       </c>
@@ -18721,7 +18738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="18" t="s">
         <v>187</v>
       </c>
@@ -18772,7 +18789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="18" t="s">
         <v>187</v>
       </c>
@@ -18824,7 +18841,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="18" t="s">
         <v>187</v>
       </c>
@@ -18878,7 +18895,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="18" t="s">
         <v>187</v>
       </c>
@@ -18930,7 +18947,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="18" t="s">
         <v>187</v>
       </c>
@@ -18984,7 +19001,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -19031,7 +19048,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -19075,7 +19092,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>187</v>
       </c>
@@ -19125,7 +19142,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -19175,7 +19192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>187</v>
       </c>
@@ -19222,7 +19239,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>187</v>
       </c>
@@ -19272,7 +19289,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>187</v>
       </c>
@@ -19322,7 +19339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>187</v>
       </c>
@@ -19372,7 +19389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -19419,7 +19436,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -19466,7 +19483,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>187</v>
       </c>
@@ -19513,7 +19530,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>187</v>
       </c>
@@ -19560,7 +19577,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>187</v>
       </c>
@@ -19613,7 +19630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>187</v>
       </c>
@@ -19660,7 +19677,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -19704,7 +19721,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>187</v>
       </c>
@@ -19748,7 +19765,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>187</v>
       </c>
@@ -19798,7 +19815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>187</v>
       </c>
@@ -19848,7 +19865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>187</v>
       </c>
@@ -19895,7 +19912,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>187</v>
       </c>
@@ -19942,7 +19959,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>187</v>
       </c>
@@ -19989,7 +20006,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>187</v>
       </c>
@@ -20039,7 +20056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>187</v>
       </c>
@@ -20083,7 +20100,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>187</v>
       </c>
@@ -20130,7 +20147,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>187</v>
       </c>
@@ -20180,7 +20197,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>373</v>
       </c>
@@ -20224,7 +20241,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>187</v>
       </c>
@@ -20271,7 +20288,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>375</v>
       </c>
@@ -20312,7 +20329,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>375</v>
       </c>
@@ -20353,7 +20370,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>375</v>
       </c>
@@ -20397,7 +20414,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>373</v>
       </c>
@@ -20444,7 +20461,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>323</v>
       </c>
@@ -20491,7 +20508,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>187</v>
       </c>
@@ -20538,7 +20555,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>187</v>
       </c>
@@ -20585,7 +20602,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>187</v>
       </c>
@@ -20635,7 +20652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>187</v>
       </c>
@@ -20682,7 +20699,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>187</v>
       </c>
@@ -20729,7 +20746,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>187</v>
       </c>
@@ -20776,7 +20793,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>187</v>
       </c>
@@ -20820,7 +20837,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>187</v>
       </c>
@@ -20867,7 +20884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>187</v>
       </c>
@@ -20914,7 +20931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>187</v>
       </c>
@@ -20961,7 +20978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>187</v>
       </c>
@@ -21008,7 +21025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>187</v>
       </c>
@@ -21055,7 +21072,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>187</v>
       </c>
@@ -21102,7 +21119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>187</v>
       </c>
@@ -21140,7 +21157,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>187</v>
       </c>
@@ -21187,7 +21204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>187</v>
       </c>
@@ -21234,7 +21251,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>187</v>
       </c>
@@ -21278,7 +21295,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>187</v>
       </c>
@@ -21313,7 +21330,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>187</v>
       </c>
@@ -21357,7 +21374,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>187</v>
       </c>
@@ -21401,7 +21418,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>187</v>
       </c>
@@ -21445,7 +21462,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>187</v>
       </c>
@@ -21492,7 +21509,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>187</v>
       </c>
@@ -21539,7 +21556,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>187</v>
       </c>
@@ -21586,7 +21603,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>187</v>
       </c>
@@ -21633,7 +21650,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>187</v>
       </c>
@@ -21680,7 +21697,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>187</v>
       </c>
@@ -21727,7 +21744,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>187</v>
       </c>
@@ -21774,7 +21791,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>187</v>
       </c>
@@ -21821,7 +21838,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>187</v>
       </c>
@@ -21868,7 +21885,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>187</v>
       </c>
@@ -21915,7 +21932,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>187</v>
       </c>
@@ -21962,7 +21979,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>187</v>
       </c>
@@ -22009,7 +22026,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>187</v>
       </c>
@@ -22053,7 +22070,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>187</v>
       </c>
@@ -22100,7 +22117,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>187</v>
       </c>
@@ -22147,7 +22164,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>187</v>
       </c>
@@ -22194,7 +22211,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>187</v>
       </c>
@@ -22244,7 +22261,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>187</v>
       </c>
@@ -22291,7 +22308,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>375</v>
       </c>
@@ -22332,7 +22349,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>187</v>
       </c>
@@ -22379,7 +22396,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>187</v>
       </c>
@@ -22426,7 +22443,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>187</v>
       </c>
@@ -22473,7 +22490,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>187</v>
       </c>
@@ -22520,7 +22537,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>187</v>
       </c>
@@ -22567,7 +22584,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>187</v>
       </c>
@@ -22614,7 +22631,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>187</v>
       </c>
@@ -22661,7 +22678,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>373</v>
       </c>
@@ -22708,7 +22725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>373</v>
       </c>
@@ -22755,7 +22772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>187</v>
       </c>
@@ -22802,7 +22819,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>187</v>
       </c>
@@ -22849,7 +22866,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>187</v>
       </c>
@@ -22893,7 +22910,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>187</v>
       </c>
@@ -22940,7 +22957,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>187</v>
       </c>
@@ -22987,7 +23004,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>187</v>
       </c>
@@ -23037,7 +23054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>187</v>
       </c>
@@ -23084,7 +23101,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -23131,7 +23148,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>187</v>
       </c>
@@ -23175,7 +23192,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>187</v>
       </c>
@@ -23222,7 +23239,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>187</v>
       </c>
@@ -23269,7 +23286,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>187</v>
       </c>
@@ -23316,7 +23333,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>187</v>
       </c>
@@ -23360,7 +23377,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>187</v>
       </c>
@@ -23407,7 +23424,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>187</v>
       </c>
@@ -23457,7 +23474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>187</v>
       </c>
@@ -23504,7 +23521,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>187</v>
       </c>
@@ -23551,7 +23568,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>187</v>
       </c>
@@ -23598,7 +23615,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>187</v>
       </c>
@@ -23645,7 +23662,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>187</v>
       </c>
@@ -23692,7 +23709,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>187</v>
       </c>
@@ -23739,7 +23756,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>187</v>
       </c>
@@ -23783,7 +23800,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>187</v>
       </c>
@@ -23830,7 +23847,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>187</v>
       </c>
@@ -23877,7 +23894,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>187</v>
       </c>
@@ -23921,7 +23938,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>187</v>
       </c>
@@ -23968,7 +23985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>187</v>
       </c>
@@ -24009,7 +24026,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>187</v>
       </c>
@@ -24053,7 +24070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>187</v>
       </c>
@@ -24097,7 +24114,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>187</v>
       </c>
@@ -24141,7 +24158,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>187</v>
       </c>
@@ -24185,7 +24202,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>187</v>
       </c>
@@ -24229,7 +24246,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>187</v>
       </c>
@@ -24276,7 +24293,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>187</v>
       </c>
@@ -24326,7 +24343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>187</v>
       </c>
@@ -24376,7 +24393,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>187</v>
       </c>
@@ -24426,7 +24443,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>187</v>
       </c>
@@ -24473,7 +24490,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>187</v>
       </c>
@@ -24523,7 +24540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>187</v>
       </c>
@@ -24573,7 +24590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>187</v>
       </c>
@@ -24620,7 +24637,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>187</v>
       </c>
@@ -24667,7 +24684,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>187</v>
       </c>
@@ -24714,7 +24731,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>187</v>
       </c>
@@ -24764,7 +24781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>187</v>
       </c>
@@ -24814,7 +24831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>187</v>
       </c>
@@ -24861,7 +24878,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>187</v>
       </c>
@@ -24905,7 +24922,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>187</v>
       </c>
@@ -24952,7 +24969,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -24996,7 +25013,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>187</v>
       </c>
@@ -25040,7 +25057,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>187</v>
       </c>
@@ -25084,7 +25101,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>187</v>
       </c>
@@ -25128,7 +25145,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>187</v>
       </c>
@@ -25175,7 +25192,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>187</v>
       </c>
@@ -25222,7 +25239,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>187</v>
       </c>
@@ -25269,7 +25286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>187</v>
       </c>
@@ -25310,7 +25327,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>187</v>
       </c>
@@ -25354,7 +25371,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>187</v>
       </c>
@@ -25401,7 +25418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>187</v>
       </c>
@@ -25448,7 +25465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>2384</v>
       </c>
@@ -25480,7 +25497,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>2384</v>
       </c>
@@ -25509,7 +25526,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>187</v>
       </c>
@@ -25556,7 +25573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>187</v>
       </c>
@@ -25603,7 +25620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>187</v>
       </c>
@@ -25647,7 +25664,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>187</v>
       </c>
@@ -25694,7 +25711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>187</v>
       </c>
@@ -25741,7 +25758,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>187</v>
       </c>
@@ -25785,7 +25802,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>187</v>
       </c>
@@ -25829,7 +25846,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>187</v>
       </c>
@@ -25873,7 +25890,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>187</v>
       </c>
@@ -25917,7 +25934,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>187</v>
       </c>
@@ -25964,7 +25981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>187</v>
       </c>
@@ -26011,7 +26028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>373</v>
       </c>
@@ -26055,7 +26072,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>187</v>
       </c>
@@ -26102,7 +26119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>187</v>
       </c>
@@ -26149,7 +26166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>187</v>
       </c>
@@ -26196,7 +26213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>187</v>
       </c>
@@ -26243,7 +26260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>323</v>
       </c>
@@ -26287,7 +26304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>187</v>
       </c>
@@ -26337,7 +26354,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>187</v>
       </c>
@@ -26378,7 +26395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>187</v>
       </c>
@@ -26422,7 +26439,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>187</v>
       </c>
@@ -26466,7 +26483,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>187</v>
       </c>
@@ -26510,7 +26527,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>187</v>
       </c>
@@ -26554,7 +26571,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>187</v>
       </c>
@@ -26601,7 +26618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>187</v>
       </c>
@@ -26648,7 +26665,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>187</v>
       </c>
@@ -26695,7 +26712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>187</v>
       </c>
@@ -26739,7 +26756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>187</v>
       </c>
@@ -26783,7 +26800,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>187</v>
       </c>
@@ -26827,7 +26844,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>187</v>
       </c>
@@ -26871,7 +26888,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>187</v>
       </c>
@@ -26918,7 +26935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>187</v>
       </c>
@@ -26962,7 +26979,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>187</v>
       </c>
@@ -27006,7 +27023,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>187</v>
       </c>
@@ -27050,7 +27067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>187</v>
       </c>
@@ -27094,7 +27111,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>187</v>
       </c>
@@ -27141,7 +27158,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A366" s="18" t="s">
         <v>187</v>
       </c>
@@ -27198,7 +27215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A367" s="18" t="s">
         <v>187</v>
       </c>
@@ -27250,7 +27267,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>187</v>
       </c>
@@ -27297,7 +27314,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>187</v>
       </c>
@@ -27344,7 +27361,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>187</v>
       </c>
@@ -27388,7 +27405,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>187</v>
       </c>
@@ -27435,7 +27452,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -27479,7 +27496,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>187</v>
       </c>
@@ -27529,7 +27546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>187</v>
       </c>
@@ -27576,7 +27593,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>187</v>
       </c>
@@ -27623,7 +27640,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>187</v>
       </c>
@@ -27670,7 +27687,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>187</v>
       </c>
@@ -27717,7 +27734,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>187</v>
       </c>
@@ -27767,7 +27784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>187</v>
       </c>
@@ -27814,7 +27831,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>187</v>
       </c>
@@ -27864,7 +27881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>187</v>
       </c>
@@ -27911,7 +27928,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>187</v>
       </c>
@@ -27958,7 +27975,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>187</v>
       </c>
@@ -28005,7 +28022,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>187</v>
       </c>
@@ -28055,7 +28072,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>187</v>
       </c>
@@ -28108,7 +28125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>187</v>
       </c>
@@ -28155,7 +28172,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="387" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>187</v>
       </c>
@@ -28205,7 +28222,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>187</v>
       </c>
@@ -28255,7 +28272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>187</v>
       </c>
@@ -28305,7 +28322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>187</v>
       </c>
@@ -28355,7 +28372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>187</v>
       </c>
@@ -28405,7 +28422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>187</v>
       </c>
@@ -28446,7 +28463,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>373</v>
       </c>
@@ -28490,7 +28507,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>187</v>
       </c>
@@ -28537,7 +28554,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>187</v>
       </c>
@@ -28584,7 +28601,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>187</v>
       </c>
@@ -28628,7 +28645,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>187</v>
       </c>
@@ -28675,7 +28692,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>375</v>
       </c>
@@ -28716,7 +28733,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>187</v>
       </c>
@@ -28763,7 +28780,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>187</v>
       </c>
@@ -28813,7 +28830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>187</v>
       </c>
@@ -28863,7 +28880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>187</v>
       </c>
@@ -28910,7 +28927,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>187</v>
       </c>
@@ -28957,7 +28974,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>187</v>
       </c>
@@ -29004,7 +29021,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>187</v>
       </c>
@@ -29051,7 +29068,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>187</v>
       </c>
@@ -29098,7 +29115,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="407" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>187</v>
       </c>
@@ -29150,7 +29167,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>187</v>
       </c>
@@ -29200,7 +29217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>187</v>
       </c>
@@ -29250,7 +29267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>187</v>
       </c>
@@ -29297,7 +29314,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>187</v>
       </c>
@@ -29347,7 +29364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>187</v>
       </c>
@@ -29397,7 +29414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>187</v>
       </c>
@@ -29452,7 +29469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="414" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>187</v>
       </c>
@@ -29504,7 +29521,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>187</v>
       </c>
@@ -29551,7 +29568,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>373</v>
       </c>
@@ -29595,7 +29612,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>187</v>
       </c>
@@ -29642,7 +29659,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>187</v>
       </c>
@@ -29692,7 +29709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>187</v>
       </c>
@@ -29742,7 +29759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>187</v>
       </c>
@@ -29789,7 +29806,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>187</v>
       </c>
@@ -29839,7 +29856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>187</v>
       </c>
@@ -29880,7 +29897,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>187</v>
       </c>
@@ -29921,7 +29938,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="424" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>187</v>
       </c>
@@ -29973,7 +29990,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="425" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>187</v>
       </c>
@@ -30028,7 +30045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>187</v>
       </c>
@@ -30072,7 +30089,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>187</v>
       </c>
@@ -30119,7 +30136,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>187</v>
       </c>
@@ -30169,7 +30186,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>187</v>
       </c>
@@ -30216,7 +30233,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>187</v>
       </c>
@@ -30263,7 +30280,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>187</v>
       </c>
@@ -30313,7 +30330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>187</v>
       </c>
@@ -30360,7 +30377,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>187</v>
       </c>
@@ -30404,7 +30421,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>187</v>
       </c>
@@ -30448,7 +30465,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>187</v>
       </c>
@@ -30495,7 +30512,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>187</v>
       </c>
@@ -30542,7 +30559,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>187</v>
       </c>
@@ -30589,7 +30606,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A438" s="18" t="s">
         <v>187</v>
       </c>
@@ -30643,7 +30660,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A439" s="18" t="s">
         <v>187</v>
       </c>
@@ -30702,7 +30719,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A440" s="18" t="s">
         <v>187</v>
       </c>
@@ -30752,7 +30769,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A441" s="18" t="s">
         <v>187</v>
       </c>
@@ -30806,7 +30823,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>334</v>
       </c>
@@ -30847,7 +30864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>187</v>
       </c>
@@ -30894,7 +30911,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>187</v>
       </c>
@@ -30941,7 +30958,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>187</v>
       </c>
@@ -30988,7 +31005,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>187</v>
       </c>
@@ -31032,7 +31049,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>187</v>
       </c>
@@ -31079,7 +31096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>187</v>
       </c>
@@ -31126,7 +31143,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>187</v>
       </c>
@@ -31173,7 +31190,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>187</v>
       </c>
@@ -31220,7 +31237,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>187</v>
       </c>
@@ -31267,7 +31284,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>187</v>
       </c>
@@ -31317,7 +31334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>187</v>
       </c>
@@ -31364,7 +31381,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>187</v>
       </c>
@@ -31411,7 +31428,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>187</v>
       </c>
@@ -31455,7 +31472,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>187</v>
       </c>
@@ -31502,7 +31519,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>187</v>
       </c>
@@ -31549,7 +31566,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>187</v>
       </c>
@@ -31596,7 +31613,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>187</v>
       </c>
@@ -31643,7 +31660,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>187</v>
       </c>
@@ -31687,7 +31704,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>187</v>
       </c>
@@ -31740,7 +31757,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>187</v>
       </c>
@@ -31787,7 +31804,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>187</v>
       </c>
@@ -31834,7 +31851,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>187</v>
       </c>
@@ -31881,7 +31898,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>187</v>
       </c>
@@ -31931,7 +31948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>187</v>
       </c>
@@ -31978,7 +31995,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>187</v>
       </c>
@@ -32022,7 +32039,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>187</v>
       </c>
@@ -32069,7 +32086,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>375</v>
       </c>
@@ -32113,7 +32130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>187</v>
       </c>
@@ -32157,7 +32174,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>187</v>
       </c>
@@ -32204,7 +32221,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>187</v>
       </c>
@@ -32251,7 +32268,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>187</v>
       </c>
@@ -32301,7 +32318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>187</v>
       </c>
@@ -32348,7 +32365,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>187</v>
       </c>
@@ -32395,7 +32412,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>187</v>
       </c>
@@ -32442,7 +32459,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>187</v>
       </c>
@@ -32489,7 +32506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>187</v>
       </c>
@@ -32536,7 +32553,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>187</v>
       </c>
@@ -32583,7 +32600,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>187</v>
       </c>
@@ -32633,7 +32650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>187</v>
       </c>
@@ -32680,7 +32697,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" s="18" t="s">
         <v>187</v>
       </c>
@@ -32726,7 +32743,7 @@
       </c>
       <c r="T482" s="18"/>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" s="15" t="s">
         <v>187</v>
       </c>
@@ -32778,7 +32795,7 @@
       </c>
       <c r="T483" s="15"/>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" s="15" t="s">
         <v>187</v>
       </c>
@@ -32830,7 +32847,7 @@
       </c>
       <c r="T484" s="15"/>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" s="15" t="s">
         <v>187</v>
       </c>
@@ -32880,7 +32897,7 @@
       </c>
       <c r="T485" s="15"/>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" s="15" t="s">
         <v>187</v>
       </c>
@@ -32930,7 +32947,7 @@
       </c>
       <c r="T486" s="15"/>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" s="15" t="s">
         <v>187</v>
       </c>
@@ -32982,7 +32999,7 @@
       </c>
       <c r="T487" s="15"/>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" s="15" t="s">
         <v>187</v>
       </c>
@@ -33033,7 +33050,7 @@
       <c r="T488" s="15"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T488">
+  <sortState ref="A2:T488">
     <sortCondition ref="T2:T488"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33041,7 +33058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS267"/>
   <sheetViews>
     <sheetView topLeftCell="AF1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
@@ -33049,13 +33066,13 @@
       <selection pane="bottomLeft" activeCell="AK196" sqref="AK196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="22" max="22" width="10.796875" style="8"/>
+    <col min="22" max="22" width="11.1640625" style="8"/>
     <col min="35" max="35" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -36440,7 +36457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -36544,7 +36561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -36651,7 +36668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -36758,7 +36775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -36850,7 +36867,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -36945,7 +36962,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -37037,7 +37054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -37129,7 +37146,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -37218,7 +37235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -37307,7 +37324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -37399,7 +37416,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -37491,7 +37508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -37583,7 +37600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -37672,7 +37689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -37761,7 +37778,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -37853,7 +37870,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -37945,7 +37962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -38037,7 +38054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -38126,7 +38143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -38215,7 +38232,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -38307,7 +38324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -38399,7 +38416,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -38491,7 +38508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -38580,7 +38597,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -38675,7 +38692,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -38772,7 +38789,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -38869,7 +38886,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -38966,7 +38983,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -39061,7 +39078,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -39156,7 +39173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -39253,7 +39270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -39350,7 +39367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -39447,7 +39464,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -39542,7 +39559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -39631,7 +39648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -39723,7 +39740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -39815,7 +39832,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -39907,7 +39924,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -39996,7 +40013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -40085,7 +40102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -40177,7 +40194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -40269,7 +40286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -40361,7 +40378,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -40450,7 +40467,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -40539,7 +40556,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -40631,7 +40648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -40723,7 +40740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -40815,7 +40832,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -40904,7 +40921,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -40993,7 +41010,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -41085,7 +41102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -41177,7 +41194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -41269,7 +41286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -41358,7 +41375,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -41453,7 +41470,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -41550,7 +41567,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -41647,7 +41664,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -41744,7 +41761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>58</v>
       </c>
@@ -41839,7 +41856,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>58</v>
       </c>
@@ -41934,7 +41951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -42030,7 +42047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -42127,7 +42144,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>58</v>
       </c>
@@ -42223,7 +42240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -42317,7 +42334,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>58</v>
       </c>
@@ -42407,7 +42424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -42500,7 +42517,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>58</v>
       </c>
@@ -42592,7 +42609,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -42685,7 +42702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>58</v>
       </c>
@@ -42775,7 +42792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -42865,7 +42882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -42958,7 +42975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>58</v>
       </c>
@@ -43050,7 +43067,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>58</v>
       </c>
@@ -43143,7 +43160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -43233,7 +43250,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -43322,7 +43339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>58</v>
       </c>
@@ -43414,7 +43431,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>58</v>
       </c>
@@ -43506,7 +43523,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>58</v>
       </c>
@@ -43598,7 +43615,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -43687,7 +43704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>58</v>
       </c>
@@ -43776,7 +43793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>58</v>
       </c>
@@ -43868,7 +43885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -43960,7 +43977,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>58</v>
       </c>
@@ -44052,7 +44069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>58</v>
       </c>
@@ -44141,7 +44158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -44235,7 +44252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>58</v>
       </c>
@@ -44331,7 +44348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>58</v>
       </c>
@@ -44428,7 +44445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>58</v>
       </c>
@@ -44524,7 +44541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>58</v>
       </c>
@@ -44618,7 +44635,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>58</v>
       </c>
@@ -44712,7 +44729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>58</v>
       </c>
@@ -44808,7 +44825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>58</v>
       </c>
@@ -44905,7 +44922,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>58</v>
       </c>
@@ -45001,7 +45018,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>58</v>
       </c>
@@ -45095,7 +45112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>58</v>
       </c>
@@ -45179,7 +45196,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -45265,7 +45282,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>58</v>
       </c>
@@ -45351,7 +45368,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>58</v>
       </c>
@@ -45437,7 +45454,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>58</v>
       </c>
@@ -45520,7 +45537,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -45604,7 +45621,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>58</v>
       </c>
@@ -45691,7 +45708,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>58</v>
       </c>
@@ -45777,7 +45794,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>58</v>
       </c>
@@ -45864,7 +45881,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>58</v>
       </c>
@@ -45948,7 +45965,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>58</v>
       </c>
@@ -46032,7 +46049,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>58</v>
       </c>
@@ -46119,7 +46136,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>58</v>
       </c>
@@ -46205,7 +46222,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>58</v>
       </c>
@@ -46292,7 +46309,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>58</v>
       </c>
@@ -46376,7 +46393,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>58</v>
       </c>
@@ -46459,7 +46476,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>58</v>
       </c>
@@ -46545,7 +46562,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>58</v>
       </c>
@@ -46631,7 +46648,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>58</v>
       </c>
@@ -46717,7 +46734,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>58</v>
       </c>
@@ -46800,7 +46817,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>58</v>
       </c>
@@ -46887,7 +46904,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>58</v>
       </c>
@@ -46976,7 +46993,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>58</v>
       </c>
@@ -47066,7 +47083,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>58</v>
       </c>
@@ -47155,7 +47172,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>58</v>
       </c>
@@ -47242,7 +47259,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -47329,7 +47346,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>58</v>
       </c>
@@ -47418,7 +47435,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>58</v>
       </c>
@@ -47508,7 +47525,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>58</v>
       </c>
@@ -47597,7 +47614,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -47684,7 +47701,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>58</v>
       </c>
@@ -47771,7 +47788,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -47861,7 +47878,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -47951,7 +47968,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -48041,7 +48058,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>58</v>
       </c>
@@ -48128,7 +48145,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>58</v>
       </c>
@@ -48216,7 +48233,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>58</v>
       </c>
@@ -48306,7 +48323,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>58</v>
       </c>
@@ -48396,7 +48413,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>58</v>
       </c>
@@ -48486,7 +48503,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>58</v>
       </c>
@@ -48573,7 +48590,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>58</v>
       </c>
@@ -48657,7 +48674,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>58</v>
       </c>
@@ -48744,7 +48761,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>58</v>
       </c>
@@ -48830,7 +48847,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>58</v>
       </c>
@@ -48917,7 +48934,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>58</v>
       </c>
@@ -49001,7 +49018,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>58</v>
       </c>
@@ -49085,7 +49102,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>58</v>
       </c>
@@ -49172,7 +49189,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>58</v>
       </c>
@@ -49258,7 +49275,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>58</v>
       </c>
@@ -49345,7 +49362,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>58</v>
       </c>
@@ -49429,7 +49446,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>58</v>
       </c>
@@ -49512,7 +49529,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>58</v>
       </c>
@@ -49598,7 +49615,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>58</v>
       </c>
@@ -49684,7 +49701,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>58</v>
       </c>
@@ -49770,7 +49787,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>58</v>
       </c>
@@ -49853,7 +49870,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>58</v>
       </c>
@@ -49936,7 +49953,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>58</v>
       </c>
@@ -50022,7 +50039,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>58</v>
       </c>
@@ -50108,7 +50125,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>58</v>
       </c>
@@ -50194,7 +50211,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>58</v>
       </c>
@@ -50277,7 +50294,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>58</v>
       </c>
@@ -50364,7 +50381,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>58</v>
       </c>
@@ -50453,7 +50470,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>58</v>
       </c>
@@ -50543,7 +50560,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>58</v>
       </c>
@@ -50632,7 +50649,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>58</v>
       </c>
@@ -50719,7 +50736,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>58</v>
       </c>
@@ -50806,7 +50823,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>58</v>
       </c>
@@ -50895,7 +50912,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>58</v>
       </c>
@@ -50985,7 +51002,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>58</v>
       </c>
@@ -51074,7 +51091,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>58</v>
       </c>
@@ -51161,7 +51178,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>58</v>
       </c>
@@ -51249,7 +51266,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>58</v>
       </c>
@@ -51339,7 +51356,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>58</v>
       </c>
@@ -51429,7 +51446,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>58</v>
       </c>
@@ -51519,7 +51536,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>58</v>
       </c>
@@ -51606,7 +51623,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>58</v>
       </c>
@@ -51694,7 +51711,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>58</v>
       </c>
@@ -51785,7 +51802,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>58</v>
       </c>
@@ -51875,7 +51892,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>58</v>
       </c>
@@ -51966,7 +51983,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>58</v>
       </c>
@@ -52054,7 +52071,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>58</v>
       </c>
@@ -52138,7 +52155,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>58</v>
       </c>
@@ -52225,7 +52242,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -52311,7 +52328,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>58</v>
       </c>
@@ -52398,7 +52415,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>58</v>
       </c>
@@ -52482,7 +52499,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>58</v>
       </c>
@@ -52565,7 +52582,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>58</v>
       </c>
@@ -52651,7 +52668,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>58</v>
       </c>
@@ -52737,7 +52754,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>58</v>
       </c>
@@ -52823,7 +52840,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>58</v>
       </c>
@@ -52906,7 +52923,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>58</v>
       </c>
@@ -52989,7 +53006,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>58</v>
       </c>
@@ -53075,7 +53092,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>58</v>
       </c>
@@ -53161,7 +53178,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>58</v>
       </c>
@@ -53247,7 +53264,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>58</v>
       </c>
@@ -53330,7 +53347,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>58</v>
       </c>
@@ -53413,7 +53430,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>58</v>
       </c>
@@ -53499,7 +53516,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>58</v>
       </c>
@@ -53585,7 +53602,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>58</v>
       </c>
@@ -53671,7 +53688,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>58</v>
       </c>
@@ -53754,7 +53771,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>58</v>
       </c>
@@ -53841,7 +53858,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>58</v>
       </c>
@@ -53930,7 +53947,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>58</v>
       </c>
@@ -54020,7 +54037,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>58</v>
       </c>
@@ -54109,7 +54126,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>58</v>
       </c>
@@ -54196,7 +54213,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>58</v>
       </c>
@@ -54284,7 +54301,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>58</v>
       </c>
@@ -54373,7 +54390,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>58</v>
       </c>
@@ -54463,7 +54480,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>58</v>
       </c>
@@ -54552,7 +54569,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>58</v>
       </c>
@@ -54639,7 +54656,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>58</v>
       </c>
@@ -54727,7 +54744,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>58</v>
       </c>
@@ -54818,7 +54835,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>58</v>
       </c>
@@ -54908,7 +54925,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>58</v>
       </c>
@@ -54999,7 +55016,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>58</v>
       </c>
@@ -55087,7 +55104,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>58</v>
       </c>
@@ -55175,7 +55192,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -55266,7 +55283,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>58</v>
       </c>
@@ -55356,7 +55373,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>58</v>
       </c>
@@ -55447,7 +55464,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>58</v>
       </c>
@@ -55535,40 +55552,40 @@
         <v>171</v>
       </c>
     </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.2">
       <c r="V246"/>
     </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.2">
       <c r="V247"/>
     </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.2">
       <c r="V248"/>
     </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.2">
       <c r="V249"/>
     </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.2">
       <c r="V250"/>
     </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.2">
       <c r="V251"/>
     </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.2">
       <c r="V252"/>
     </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.2">
       <c r="V253"/>
     </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.2">
       <c r="V254"/>
     </row>
-    <row r="255" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.2">
       <c r="V255"/>
     </row>
-    <row r="266" spans="29:29" x14ac:dyDescent="0.3">
+    <row r="266" spans="29:29" x14ac:dyDescent="0.2">
       <c r="AC266" s="2"/>
     </row>
-    <row r="267" spans="29:29" x14ac:dyDescent="0.3">
+    <row r="267" spans="29:29" x14ac:dyDescent="0.2">
       <c r="AC267" s="2"/>
     </row>
   </sheetData>
@@ -55578,16 +55595,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M73" zoomScale="150" workbookViewId="0">
-      <selection activeCell="U98" sqref="U98"/>
+    <sheetView tabSelected="1" topLeftCell="I153" zoomScale="150" workbookViewId="0">
+      <selection activeCell="R171" sqref="R171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -57251,10 +57268,10 @@
         <v>188</v>
       </c>
       <c r="L34" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M34" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="P34" t="s">
         <v>795</v>
@@ -57304,10 +57321,10 @@
         <v>188</v>
       </c>
       <c r="L35" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M35" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="R35" t="s">
         <v>276</v>
@@ -57354,10 +57371,10 @@
         <v>188</v>
       </c>
       <c r="L36" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M36" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="R36" t="s">
         <v>227</v>
@@ -57407,10 +57424,10 @@
         <v>188</v>
       </c>
       <c r="L37" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M37" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="R37" t="s">
         <v>227</v>
@@ -57460,10 +57477,10 @@
         <v>188</v>
       </c>
       <c r="L38" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M38" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="R38" t="s">
         <v>227</v>
@@ -57513,10 +57530,10 @@
         <v>188</v>
       </c>
       <c r="L39" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M39" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="R39" t="s">
         <v>227</v>
@@ -57566,10 +57583,10 @@
         <v>188</v>
       </c>
       <c r="L40" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M40" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="P40" t="s">
         <v>42</v>
@@ -57622,10 +57639,10 @@
         <v>188</v>
       </c>
       <c r="L41" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M41" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="P41" t="s">
         <v>42</v>
@@ -57672,10 +57689,10 @@
         <v>188</v>
       </c>
       <c r="L42" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M42" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="P42" t="s">
         <v>2158</v>
@@ -57728,10 +57745,10 @@
         <v>188</v>
       </c>
       <c r="L43" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M43" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="R43" t="s">
         <v>333</v>
@@ -57778,10 +57795,10 @@
         <v>188</v>
       </c>
       <c r="L44" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M44" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="P44" t="s">
         <v>42</v>
@@ -57834,10 +57851,10 @@
         <v>188</v>
       </c>
       <c r="L45" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M45" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="N45" t="s">
         <v>189</v>
@@ -57893,10 +57910,10 @@
         <v>188</v>
       </c>
       <c r="L46" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M46" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="N46" t="s">
         <v>821</v>
@@ -57952,10 +57969,10 @@
         <v>188</v>
       </c>
       <c r="L47" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M47" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="P47" t="s">
         <v>795</v>
@@ -58058,10 +58075,10 @@
         <v>188</v>
       </c>
       <c r="L49" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M49" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="P49" t="s">
         <v>795</v>
@@ -58114,10 +58131,10 @@
         <v>188</v>
       </c>
       <c r="L50" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M50" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="P50" t="s">
         <v>795</v>
@@ -58497,7 +58514,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -58532,10 +58549,10 @@
         <v>188</v>
       </c>
       <c r="L58" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M58" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="R58" t="s">
         <v>227</v>
@@ -58550,7 +58567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>187</v>
       </c>
@@ -58741,10 +58758,10 @@
         <v>188</v>
       </c>
       <c r="L62" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="M62" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="P62" t="s">
         <v>795</v>
@@ -59206,7 +59223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -59606,7 +59623,7 @@
         <v>276</v>
       </c>
       <c r="U79" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
@@ -59706,7 +59723,7 @@
         <v>276</v>
       </c>
       <c r="U81" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
@@ -59756,7 +59773,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
@@ -59806,7 +59823,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
@@ -59859,7 +59876,7 @@
         <v>276</v>
       </c>
       <c r="U84" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -59909,7 +59926,7 @@
         <v>276</v>
       </c>
       <c r="U85" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
@@ -59959,7 +59976,7 @@
         <v>276</v>
       </c>
       <c r="U86" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
@@ -60009,7 +60026,7 @@
         <v>276</v>
       </c>
       <c r="U87" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
@@ -60056,7 +60073,7 @@
         <v>276</v>
       </c>
       <c r="U88" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
@@ -60103,7 +60120,7 @@
         <v>276</v>
       </c>
       <c r="U89" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
@@ -60153,7 +60170,7 @@
         <v>276</v>
       </c>
       <c r="U90" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
@@ -60200,7 +60217,7 @@
         <v>276</v>
       </c>
       <c r="U91" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
@@ -60247,7 +60264,7 @@
         <v>276</v>
       </c>
       <c r="U92" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
@@ -60294,7 +60311,7 @@
         <v>276</v>
       </c>
       <c r="U93" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
@@ -60341,7 +60358,7 @@
         <v>276</v>
       </c>
       <c r="U94" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
@@ -60388,7 +60405,7 @@
         <v>276</v>
       </c>
       <c r="U95" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
@@ -60435,10 +60452,10 @@
         <v>276</v>
       </c>
       <c r="U96" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>187</v>
       </c>
@@ -60473,10 +60490,10 @@
         <v>276</v>
       </c>
       <c r="U97" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -60520,10 +60537,10 @@
         <v>276</v>
       </c>
       <c r="U98" t="s">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>187</v>
       </c>
@@ -60567,10 +60584,10 @@
         <v>276</v>
       </c>
       <c r="U99" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>187</v>
       </c>
@@ -60617,7 +60634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -60667,7 +60684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>373</v>
       </c>
@@ -60714,7 +60731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>373</v>
       </c>
@@ -60761,7 +60778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -60811,7 +60828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -60861,7 +60878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>187</v>
       </c>
@@ -60908,7 +60925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>187</v>
       </c>
@@ -60952,7 +60969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -61002,7 +61019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>187</v>
       </c>
@@ -61052,7 +61069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>187</v>
       </c>
@@ -61102,7 +61119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>187</v>
       </c>
@@ -61152,7 +61169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -61202,7 +61219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -61252,7 +61269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -61302,7 +61319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>187</v>
       </c>
@@ -61349,7 +61366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>187</v>
       </c>
@@ -61396,7 +61413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>187</v>
       </c>
@@ -61443,7 +61460,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -61490,7 +61507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>187</v>
       </c>
@@ -61537,7 +61554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>187</v>
       </c>
@@ -61584,7 +61601,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>187</v>
       </c>
@@ -61631,7 +61648,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>187</v>
       </c>
@@ -61678,7 +61695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>373</v>
       </c>
@@ -61722,7 +61739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>187</v>
       </c>
@@ -61769,7 +61786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>187</v>
       </c>
@@ -61816,7 +61833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -61863,7 +61880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>187</v>
       </c>
@@ -61910,7 +61927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>323</v>
       </c>
@@ -61954,7 +61971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>187</v>
       </c>
@@ -61995,7 +62012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>187</v>
       </c>
@@ -62042,7 +62059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>187</v>
       </c>
@@ -62089,7 +62106,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -62133,7 +62150,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>187</v>
       </c>
@@ -62180,7 +62197,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -62224,7 +62241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>187</v>
       </c>
@@ -62271,7 +62288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>187</v>
       </c>
@@ -62324,7 +62341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>187</v>
       </c>
@@ -62374,7 +62391,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>187</v>
       </c>
@@ -62424,7 +62441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>187</v>
       </c>
@@ -62461,6 +62478,9 @@
       <c r="P139" t="s">
         <v>795</v>
       </c>
+      <c r="Q139" s="23" t="s">
+        <v>2652</v>
+      </c>
       <c r="R139" t="s">
         <v>286</v>
       </c>
@@ -62474,7 +62494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>187</v>
       </c>
@@ -62514,6 +62534,9 @@
       <c r="P140" t="s">
         <v>795</v>
       </c>
+      <c r="Q140" s="23" t="s">
+        <v>2652</v>
+      </c>
       <c r="R140" t="s">
         <v>286</v>
       </c>
@@ -62527,7 +62550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>187</v>
       </c>
@@ -62564,6 +62587,9 @@
       <c r="P141" t="s">
         <v>795</v>
       </c>
+      <c r="Q141" s="23" t="s">
+        <v>2646</v>
+      </c>
       <c r="R141" t="s">
         <v>38</v>
       </c>
@@ -62577,7 +62603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>187</v>
       </c>
@@ -62614,6 +62640,9 @@
       <c r="P142" t="s">
         <v>795</v>
       </c>
+      <c r="Q142" s="23" t="s">
+        <v>2654</v>
+      </c>
       <c r="R142" t="s">
         <v>38</v>
       </c>
@@ -62627,7 +62656,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>187</v>
       </c>
@@ -62664,6 +62693,9 @@
       <c r="P143" t="s">
         <v>795</v>
       </c>
+      <c r="Q143" s="23" t="s">
+        <v>2646</v>
+      </c>
       <c r="R143" t="s">
         <v>276</v>
       </c>
@@ -62677,7 +62709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>187</v>
       </c>
@@ -62714,6 +62746,9 @@
       <c r="P144" t="s">
         <v>795</v>
       </c>
+      <c r="Q144" s="23" t="s">
+        <v>2652</v>
+      </c>
       <c r="R144" t="s">
         <v>276</v>
       </c>
@@ -62727,7 +62762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>187</v>
       </c>
@@ -62764,6 +62799,9 @@
       <c r="P145" t="s">
         <v>795</v>
       </c>
+      <c r="Q145" s="23" t="s">
+        <v>2652</v>
+      </c>
       <c r="R145" t="s">
         <v>38</v>
       </c>
@@ -62777,7 +62815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>187</v>
       </c>
@@ -62814,6 +62852,9 @@
       <c r="P146" t="s">
         <v>795</v>
       </c>
+      <c r="Q146" s="23" t="s">
+        <v>2653</v>
+      </c>
       <c r="R146" t="s">
         <v>38</v>
       </c>
@@ -62827,7 +62868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>187</v>
       </c>
@@ -62864,6 +62905,9 @@
       <c r="P147" t="s">
         <v>795</v>
       </c>
+      <c r="Q147" s="23" t="s">
+        <v>2652</v>
+      </c>
       <c r="R147" t="s">
         <v>38</v>
       </c>
@@ -62877,7 +62921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>187</v>
       </c>
@@ -62914,6 +62958,9 @@
       <c r="P148" t="s">
         <v>810</v>
       </c>
+      <c r="Q148" s="23" t="s">
+        <v>2655</v>
+      </c>
       <c r="R148" t="s">
         <v>38</v>
       </c>
@@ -62927,7 +62974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>187</v>
       </c>
@@ -62964,6 +63011,9 @@
       <c r="P149" t="s">
         <v>795</v>
       </c>
+      <c r="Q149" s="23" t="s">
+        <v>2656</v>
+      </c>
       <c r="R149" t="s">
         <v>38</v>
       </c>
@@ -62977,7 +63027,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>187</v>
       </c>
@@ -63014,6 +63064,9 @@
       <c r="P150" t="s">
         <v>795</v>
       </c>
+      <c r="Q150" s="23" t="s">
+        <v>2652</v>
+      </c>
       <c r="R150" t="s">
         <v>38</v>
       </c>
@@ -63027,7 +63080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -63064,6 +63117,9 @@
       <c r="P151" t="s">
         <v>795</v>
       </c>
+      <c r="Q151" s="23" t="s">
+        <v>2652</v>
+      </c>
       <c r="R151" t="s">
         <v>38</v>
       </c>
@@ -63077,7 +63133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>187</v>
       </c>
@@ -63111,6 +63167,9 @@
       <c r="P152" t="s">
         <v>795</v>
       </c>
+      <c r="Q152" s="23" t="s">
+        <v>2652</v>
+      </c>
       <c r="R152" t="s">
         <v>38</v>
       </c>
@@ -63124,7 +63183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>187</v>
       </c>
@@ -63161,6 +63220,9 @@
       <c r="P153" t="s">
         <v>795</v>
       </c>
+      <c r="Q153" s="23" t="s">
+        <v>2653</v>
+      </c>
       <c r="R153" t="s">
         <v>38</v>
       </c>
@@ -63174,7 +63236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>187</v>
       </c>
@@ -63211,6 +63273,9 @@
       <c r="P154" t="s">
         <v>795</v>
       </c>
+      <c r="Q154" s="23" t="s">
+        <v>2653</v>
+      </c>
       <c r="R154" t="s">
         <v>227</v>
       </c>
@@ -63224,7 +63289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>187</v>
       </c>
@@ -63261,6 +63326,9 @@
       <c r="P155" t="s">
         <v>795</v>
       </c>
+      <c r="Q155" s="23" t="s">
+        <v>2646</v>
+      </c>
       <c r="R155" t="s">
         <v>227</v>
       </c>
@@ -63274,7 +63342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -63311,6 +63379,9 @@
       <c r="P156" t="s">
         <v>795</v>
       </c>
+      <c r="Q156" s="23" t="s">
+        <v>2646</v>
+      </c>
       <c r="R156" t="s">
         <v>227</v>
       </c>
@@ -63324,7 +63395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>187</v>
       </c>
@@ -63361,6 +63432,9 @@
       <c r="P157" t="s">
         <v>795</v>
       </c>
+      <c r="Q157" s="23" t="s">
+        <v>2653</v>
+      </c>
       <c r="R157" t="s">
         <v>227</v>
       </c>
@@ -63374,7 +63448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -63411,6 +63485,9 @@
       <c r="P158" t="s">
         <v>795</v>
       </c>
+      <c r="Q158" s="23" t="s">
+        <v>2646</v>
+      </c>
       <c r="R158" t="s">
         <v>227</v>
       </c>
@@ -63424,7 +63501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>187</v>
       </c>
@@ -63462,7 +63539,7 @@
         <v>795</v>
       </c>
       <c r="Q159" t="s">
-        <v>189</v>
+        <v>2652</v>
       </c>
       <c r="R159" t="s">
         <v>276</v>
@@ -63477,7 +63554,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>187</v>
       </c>
@@ -63518,7 +63595,7 @@
         <v>810</v>
       </c>
       <c r="Q160" t="s">
-        <v>189</v>
+        <v>2653</v>
       </c>
       <c r="R160" t="s">
         <v>190</v>
@@ -63533,7 +63610,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>334</v>
       </c>
@@ -63562,7 +63639,7 @@
         <v>795</v>
       </c>
       <c r="Q161" t="s">
-        <v>189</v>
+        <v>2653</v>
       </c>
       <c r="R161" t="s">
         <v>227</v>
@@ -63577,7 +63654,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -63627,7 +63704,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>187</v>
       </c>
@@ -63665,7 +63742,7 @@
         <v>795</v>
       </c>
       <c r="Q163" t="s">
-        <v>189</v>
+        <v>2646</v>
       </c>
       <c r="R163" t="s">
         <v>276</v>
@@ -63680,7 +63757,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>187</v>
       </c>
@@ -63718,7 +63795,7 @@
         <v>795</v>
       </c>
       <c r="Q164" t="s">
-        <v>189</v>
+        <v>2653</v>
       </c>
       <c r="R164" t="s">
         <v>38</v>
@@ -63733,7 +63810,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>375</v>
       </c>
@@ -63765,7 +63842,7 @@
         <v>795</v>
       </c>
       <c r="Q165" t="s">
-        <v>189</v>
+        <v>2646</v>
       </c>
       <c r="R165" t="s">
         <v>38</v>
@@ -63780,7 +63857,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>187</v>
       </c>
@@ -63815,7 +63892,7 @@
         <v>795</v>
       </c>
       <c r="Q166" t="s">
-        <v>189</v>
+        <v>2653</v>
       </c>
       <c r="R166" t="s">
         <v>276</v>
@@ -63830,7 +63907,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -63883,23 +63960,23 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F298" s="1"/>
     </row>
-    <row r="352" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F352" s="1"/>
     </row>
-    <row r="360" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F360" s="1"/>
     </row>
-    <row r="438" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F438" s="1"/>
     </row>
-    <row r="451" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F451" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U167">
+  <sortState ref="A2:U167">
     <sortCondition ref="T2:T167"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/egret.xlsx
+++ b/data/egret.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17782\Documents\GitHub\egret\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapph\Documents\ubc things\work\egret\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CE382-C730-4C8E-A284-80316910A347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDC59F5-A263-4FCE-8285-5768B11E0014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -8499,9 +8499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8539,7 +8539,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8645,7 +8645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8787,7 +8787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9368,8 +9368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G304" workbookViewId="0">
-      <selection activeCell="L204" sqref="L204"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="C342" sqref="C342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9382,7 +9382,7 @@
     <col min="19" max="19" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>296</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -34271,7 +34271,7 @@
     <col min="1" max="1" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>134</v>
       </c>
@@ -34336,7 +34336,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -34383,7 +34383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -34433,7 +34433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -34480,7 +34480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -34527,7 +34527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -34577,7 +34577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -34627,7 +34627,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -34677,7 +34677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -34724,7 +34724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -34771,7 +34771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -34821,7 +34821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -34871,7 +34871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -34921,7 +34921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -34971,7 +34971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -35021,7 +35021,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -35071,7 +35071,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>337</v>
       </c>
@@ -35115,7 +35115,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -35162,7 +35162,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -35209,7 +35209,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -35259,7 +35259,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -35306,7 +35306,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -35356,7 +35356,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -35406,7 +35406,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -35459,7 +35459,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -35512,7 +35512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -35565,7 +35565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -35609,7 +35609,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -35706,7 +35706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>296</v>
       </c>
@@ -35750,7 +35750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -35797,7 +35797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>149</v>
       </c>
@@ -35847,7 +35847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -35897,7 +35897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -35953,7 +35953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -36003,7 +36003,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -36053,7 +36053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -36106,7 +36106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -36159,7 +36159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -36212,7 +36212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -36268,7 +36268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -36324,7 +36324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -36374,7 +36374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -36427,7 +36427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -36480,7 +36480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -36539,7 +36539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -36598,7 +36598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -36654,7 +36654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -36704,7 +36704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -36760,7 +36760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -36816,7 +36816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -36869,7 +36869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -36922,7 +36922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -36975,7 +36975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>335</v>
       </c>
@@ -37022,7 +37022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -37072,7 +37072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -37125,7 +37125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -37284,7 +37284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -37337,7 +37337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>149</v>
       </c>
@@ -37387,7 +37387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -37443,7 +37443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -37496,7 +37496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -37546,7 +37546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -37596,7 +37596,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -37646,7 +37646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -37693,7 +37693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -37737,7 +37737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -37787,7 +37787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -37837,7 +37837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -37937,7 +37937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -37987,7 +37987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -38037,7 +38037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -38087,7 +38087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -38137,7 +38137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -38187,7 +38187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -38240,7 +38240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -38290,7 +38290,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>149</v>
       </c>
@@ -38340,7 +38340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -38390,7 +38390,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>149</v>
       </c>
@@ -38440,7 +38440,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>149</v>
       </c>
@@ -38490,7 +38490,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -38543,7 +38543,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -38593,7 +38593,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>149</v>
       </c>
@@ -38643,7 +38643,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -38693,7 +38693,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>335</v>
       </c>
@@ -38740,7 +38740,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>285</v>
       </c>
@@ -38787,7 +38787,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>149</v>
       </c>
@@ -38837,7 +38837,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>149</v>
       </c>
@@ -38884,7 +38884,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>149</v>
       </c>
@@ -38931,7 +38931,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>149</v>
       </c>
@@ -38978,7 +38978,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>149</v>
       </c>
@@ -39025,7 +39025,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>149</v>
       </c>
@@ -39072,7 +39072,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>149</v>
       </c>

--- a/data/egret.xlsx
+++ b/data/egret.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapph\Documents\ubc things\work\egret\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17782\Documents\GitHub\egret\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDC59F5-A263-4FCE-8285-5768B11E0014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CE382-C730-4C8E-A284-80316910A347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -8499,9 +8499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8539,7 +8539,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8645,7 +8645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8787,7 +8787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9368,8 +9368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="C342" sqref="C342"/>
+    <sheetView tabSelected="1" topLeftCell="G304" workbookViewId="0">
+      <selection activeCell="L204" sqref="L204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9382,7 +9382,7 @@
     <col min="19" max="19" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>296</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -34271,7 +34271,7 @@
     <col min="1" max="1" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>134</v>
       </c>
@@ -34336,7 +34336,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -34383,7 +34383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -34433,7 +34433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -34480,7 +34480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -34527,7 +34527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -34577,7 +34577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -34627,7 +34627,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -34677,7 +34677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -34724,7 +34724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -34771,7 +34771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -34821,7 +34821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -34871,7 +34871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -34921,7 +34921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -34971,7 +34971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -35021,7 +35021,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -35071,7 +35071,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>337</v>
       </c>
@@ -35115,7 +35115,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -35162,7 +35162,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -35209,7 +35209,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -35259,7 +35259,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -35306,7 +35306,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -35356,7 +35356,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -35406,7 +35406,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -35459,7 +35459,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -35512,7 +35512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -35565,7 +35565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -35609,7 +35609,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -35706,7 +35706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>296</v>
       </c>
@@ -35750,7 +35750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -35797,7 +35797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>149</v>
       </c>
@@ -35847,7 +35847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -35897,7 +35897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -35953,7 +35953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -36003,7 +36003,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -36053,7 +36053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -36106,7 +36106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -36159,7 +36159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -36212,7 +36212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -36268,7 +36268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -36324,7 +36324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -36374,7 +36374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -36427,7 +36427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -36480,7 +36480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -36539,7 +36539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -36598,7 +36598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -36654,7 +36654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -36704,7 +36704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -36760,7 +36760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -36816,7 +36816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -36869,7 +36869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -36922,7 +36922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -36975,7 +36975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>335</v>
       </c>
@@ -37022,7 +37022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -37072,7 +37072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -37125,7 +37125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -37284,7 +37284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -37337,7 +37337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>149</v>
       </c>
@@ -37387,7 +37387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -37443,7 +37443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -37496,7 +37496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -37546,7 +37546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -37596,7 +37596,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -37646,7 +37646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -37693,7 +37693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -37737,7 +37737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -37787,7 +37787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -37837,7 +37837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -37937,7 +37937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -37987,7 +37987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -38037,7 +38037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -38087,7 +38087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -38137,7 +38137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -38187,7 +38187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -38240,7 +38240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -38290,7 +38290,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>149</v>
       </c>
@@ -38340,7 +38340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -38390,7 +38390,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>149</v>
       </c>
@@ -38440,7 +38440,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>149</v>
       </c>
@@ -38490,7 +38490,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -38543,7 +38543,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -38593,7 +38593,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>149</v>
       </c>
@@ -38643,7 +38643,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -38693,7 +38693,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>335</v>
       </c>
@@ -38740,7 +38740,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>285</v>
       </c>
@@ -38787,7 +38787,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>149</v>
       </c>
@@ -38837,7 +38837,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>149</v>
       </c>
@@ -38884,7 +38884,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>149</v>
       </c>
@@ -38931,7 +38931,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>149</v>
       </c>
@@ -38978,7 +38978,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>149</v>
       </c>
@@ -39025,7 +39025,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>149</v>
       </c>
@@ -39072,7 +39072,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" ht="16.05" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>149</v>
       </c>
